--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2430996.716544271</v>
+        <v>-2432779.622404134</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6028847.321918219</v>
+        <v>6028847.321918218</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.165107859198</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>285.704157966725</v>
       </c>
       <c r="D11" t="n">
-        <v>125.7945266832127</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>302.3616362679792</v>
       </c>
       <c r="F11" t="n">
-        <v>327.3073119374289</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.81418606772747</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.22713566997376</v>
       </c>
       <c r="T11" t="n">
         <v>131.3816879599484</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.5549581157774</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.6722349131305</v>
       </c>
       <c r="X11" t="n">
-        <v>290.1623668741865</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>306.669204851771</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>86.96444984558478</v>
+        <v>157.2957762400365</v>
       </c>
       <c r="C12" t="n">
-        <v>93.13976518403318</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>67.87633176035619</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>78.07634665111839</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>56.29028837994818</v>
+        <v>56.29028837994819</v>
       </c>
       <c r="H12" t="n">
-        <v>18.32961418785546</v>
+        <v>18.32961418785548</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.988926598084461</v>
+        <v>7.988926598084475</v>
       </c>
       <c r="S12" t="n">
-        <v>64.54059415929279</v>
+        <v>64.54059415929281</v>
       </c>
       <c r="T12" t="n">
-        <v>184.9437647688395</v>
+        <v>114.6124383743877</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8437179376209</v>
+        <v>146.2749841333383</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>153.2318533451427</v>
       </c>
       <c r="W12" t="n">
         <v>172.1262493566371</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>126.2042513991949</v>
       </c>
       <c r="Y12" t="n">
         <v>126.1139619730218</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.2632463776547</v>
+        <v>100.2632463776548</v>
       </c>
       <c r="C13" t="n">
-        <v>87.67808729434527</v>
+        <v>87.67808729434529</v>
       </c>
       <c r="D13" t="n">
-        <v>69.0467392139298</v>
+        <v>69.04673921392981</v>
       </c>
       <c r="E13" t="n">
-        <v>66.86522884228661</v>
+        <v>66.86522884228663</v>
       </c>
       <c r="F13" t="n">
-        <v>65.85231421864869</v>
+        <v>65.8523142186487</v>
       </c>
       <c r="G13" t="n">
         <v>87.17769483121779</v>
       </c>
       <c r="H13" t="n">
-        <v>71.59325136630861</v>
+        <v>71.59325136630864</v>
       </c>
       <c r="I13" t="n">
-        <v>38.45470665437192</v>
+        <v>38.45470665437193</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76513142968429</v>
+        <v>41.76513142968432</v>
       </c>
       <c r="S13" t="n">
         <v>122.7587393607691</v>
@@ -1607,25 +1607,25 @@
         <v>303.165107859198</v>
       </c>
       <c r="C14" t="n">
-        <v>285.704157966725</v>
+        <v>285.7041579667249</v>
       </c>
       <c r="D14" t="n">
-        <v>272.4499759737527</v>
+        <v>275.1143078164004</v>
       </c>
       <c r="E14" t="n">
         <v>302.3616362679792</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>327.3073119374288</v>
       </c>
       <c r="G14" t="n">
-        <v>332.9594913636451</v>
+        <v>15.76212678510881</v>
       </c>
       <c r="H14" t="n">
         <v>231.4915937356466</v>
       </c>
       <c r="I14" t="n">
-        <v>23.94276850040936</v>
+        <v>23.94276850040931</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>66.22713566997371</v>
       </c>
       <c r="T14" t="n">
-        <v>131.3816879599484</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>171.5549581157774</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>290.1623668741864</v>
       </c>
       <c r="Y14" t="n">
         <v>306.669204851771</v>
@@ -1698,10 +1698,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>113.8169358934336</v>
+        <v>56.29028837994814</v>
       </c>
       <c r="H15" t="n">
-        <v>97.89834799213801</v>
+        <v>75.85626170134159</v>
       </c>
       <c r="I15" t="n">
         <v>38.28573116285295</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S15" t="n">
         <v>144.1093279635753</v>
       </c>
       <c r="T15" t="n">
-        <v>114.6124383743876</v>
+        <v>194.1811721786702</v>
       </c>
       <c r="U15" t="n">
         <v>225.8437179376209</v>
@@ -1765,25 +1765,25 @@
         <v>100.2632463776547</v>
       </c>
       <c r="C16" t="n">
-        <v>87.67808729434527</v>
+        <v>87.67808729434523</v>
       </c>
       <c r="D16" t="n">
-        <v>69.0467392139298</v>
+        <v>69.04673921392975</v>
       </c>
       <c r="E16" t="n">
-        <v>66.86522884228661</v>
+        <v>66.86522884228657</v>
       </c>
       <c r="F16" t="n">
-        <v>65.85231421864869</v>
+        <v>65.85231421864864</v>
       </c>
       <c r="G16" t="n">
-        <v>87.17769483121779</v>
+        <v>87.17769483121775</v>
       </c>
       <c r="H16" t="n">
-        <v>71.59325136630861</v>
+        <v>71.59325136630856</v>
       </c>
       <c r="I16" t="n">
-        <v>38.45470665437191</v>
+        <v>38.45470665437188</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76513142968428</v>
+        <v>41.76513142968425</v>
       </c>
       <c r="S16" t="n">
-        <v>122.7587393607691</v>
+        <v>122.758739360769</v>
       </c>
       <c r="T16" t="n">
         <v>143.0592298077221</v>
       </c>
       <c r="U16" t="n">
-        <v>206.6824109673197</v>
+        <v>206.6824109673196</v>
       </c>
       <c r="V16" t="n">
-        <v>172.5689095195455</v>
+        <v>172.5689095195454</v>
       </c>
       <c r="W16" t="n">
-        <v>206.9542645323085</v>
+        <v>206.9542645323084</v>
       </c>
       <c r="X16" t="n">
         <v>146.1409215847546</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>210.1700474477263</v>
+        <v>223.5963740549154</v>
       </c>
       <c r="C17" t="n">
-        <v>206.1354241624425</v>
+        <v>206.1354241624424</v>
       </c>
       <c r="D17" t="n">
-        <v>195.5455740121179</v>
+        <v>195.5455740121178</v>
       </c>
       <c r="E17" t="n">
-        <v>222.7929024636967</v>
+        <v>209.3665758565078</v>
       </c>
       <c r="F17" t="n">
         <v>247.7385781331463</v>
       </c>
       <c r="G17" t="n">
-        <v>253.3907575593626</v>
+        <v>253.3907575593624</v>
       </c>
       <c r="H17" t="n">
-        <v>151.9228599313641</v>
+        <v>151.922859931364</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>51.8129541556658</v>
+        <v>51.81295415566571</v>
       </c>
       <c r="U17" t="n">
-        <v>91.98622431149481</v>
+        <v>91.98622431149472</v>
       </c>
       <c r="V17" t="n">
-        <v>168.6147908615698</v>
+        <v>168.6147908615697</v>
       </c>
       <c r="W17" t="n">
-        <v>190.1035011088479</v>
+        <v>190.1035011088478</v>
       </c>
       <c r="X17" t="n">
         <v>210.5936330699039</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.1004710474885</v>
+        <v>227.1004710474884</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>135.8590221842308</v>
       </c>
       <c r="H18" t="n">
-        <v>97.89834799213801</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.988926598084461</v>
+        <v>4.27645449514333</v>
       </c>
       <c r="S18" t="n">
-        <v>80.78423903134903</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T18" t="n">
         <v>194.1811721786702</v>
@@ -1999,31 +1999,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.69451257337221</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>8.109353490062659</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.608961026935261</v>
+        <v>7.608961026935176</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>101.5579679625368</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.369444003513252</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S19" t="n">
-        <v>43.19000555648654</v>
+        <v>43.19000555648645</v>
       </c>
       <c r="T19" t="n">
-        <v>63.49049600343957</v>
+        <v>63.49049600343948</v>
       </c>
       <c r="U19" t="n">
-        <v>187.6801091191049</v>
+        <v>127.1136771630371</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>93.00017571526283</v>
       </c>
       <c r="W19" t="n">
-        <v>127.3855307280259</v>
+        <v>127.3855307280258</v>
       </c>
       <c r="X19" t="n">
-        <v>66.57218778047206</v>
+        <v>66.57218778047198</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.4471857435297</v>
+        <v>59.44718574352962</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.5963740549155</v>
+        <v>223.5963740549154</v>
       </c>
       <c r="C20" t="n">
-        <v>206.1354241624425</v>
+        <v>206.1354241624424</v>
       </c>
       <c r="D20" t="n">
-        <v>195.5455740121179</v>
+        <v>195.5455740121178</v>
       </c>
       <c r="E20" t="n">
-        <v>222.7929024636967</v>
+        <v>222.7929024636966</v>
       </c>
       <c r="F20" t="n">
         <v>247.7385781331463</v>
       </c>
       <c r="G20" t="n">
-        <v>253.3907575593626</v>
+        <v>253.3907575593624</v>
       </c>
       <c r="H20" t="n">
-        <v>151.9228599313641</v>
+        <v>151.922859931364</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>51.8129541556658</v>
+        <v>38.38662754847797</v>
       </c>
       <c r="U20" t="n">
-        <v>91.98622431149481</v>
+        <v>91.98622431149472</v>
       </c>
       <c r="V20" t="n">
-        <v>155.1884642543807</v>
+        <v>168.6147908615697</v>
       </c>
       <c r="W20" t="n">
-        <v>190.1035011088479</v>
+        <v>190.1035011088478</v>
       </c>
       <c r="X20" t="n">
         <v>210.5936330699039</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.1004710474885</v>
+        <v>227.1004710474884</v>
       </c>
     </row>
     <row r="21">
@@ -2169,10 +2169,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>43.45839229830437</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8590221842308</v>
+        <v>34.2482020891517</v>
       </c>
       <c r="H21" t="n">
         <v>97.89834799213801</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.69451257337221</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>8.109353490062745</v>
+        <v>8.109353490062659</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>79.71030219699377</v>
+        <v>7.608961026935176</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.19000555648654</v>
+        <v>43.19000555648645</v>
       </c>
       <c r="T22" t="n">
-        <v>63.49049600343957</v>
+        <v>63.49049600343948</v>
       </c>
       <c r="U22" t="n">
-        <v>127.1136771630372</v>
+        <v>174.9766041571098</v>
       </c>
       <c r="V22" t="n">
-        <v>93.00017571526291</v>
+        <v>93.00017571526283</v>
       </c>
       <c r="W22" t="n">
-        <v>127.3855307280259</v>
+        <v>127.3855307280258</v>
       </c>
       <c r="X22" t="n">
-        <v>66.57218778047206</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.5963740549155</v>
+        <v>223.5963740549154</v>
       </c>
       <c r="C23" t="n">
-        <v>206.1354241624425</v>
+        <v>206.1354241624424</v>
       </c>
       <c r="D23" t="n">
-        <v>195.5455740121179</v>
+        <v>195.5455740121178</v>
       </c>
       <c r="E23" t="n">
-        <v>222.7929024636967</v>
+        <v>222.7929024636966</v>
       </c>
       <c r="F23" t="n">
         <v>247.7385781331463</v>
       </c>
       <c r="G23" t="n">
-        <v>253.3907575593626</v>
+        <v>253.3907575593624</v>
       </c>
       <c r="H23" t="n">
-        <v>151.9228599313641</v>
+        <v>151.922859931364</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>51.8129541556658</v>
+        <v>51.81295415566571</v>
       </c>
       <c r="U23" t="n">
-        <v>91.98622431149481</v>
+        <v>91.98622431149472</v>
       </c>
       <c r="V23" t="n">
-        <v>168.6147908615698</v>
+        <v>168.6147908615697</v>
       </c>
       <c r="W23" t="n">
-        <v>190.1035011088479</v>
+        <v>190.1035011088478</v>
       </c>
       <c r="X23" t="n">
         <v>210.5936330699039</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.1004710474885</v>
+        <v>227.1004710474884</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2412,7 @@
         <v>135.8590221842308</v>
       </c>
       <c r="H24" t="n">
-        <v>97.89834799213801</v>
+        <v>9.713854504247776</v>
       </c>
       <c r="I24" t="n">
         <v>38.28573116285295</v>
@@ -2445,7 +2445,7 @@
         <v>7.988926598084461</v>
       </c>
       <c r="S24" t="n">
-        <v>55.92483447568624</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T24" t="n">
         <v>194.1811721786702</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.69451257337221</v>
+        <v>20.69451257337212</v>
       </c>
       <c r="C25" t="n">
-        <v>8.109353490062745</v>
+        <v>8.109353490062659</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.608961026935261</v>
+        <v>7.608961026935176</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.8629269940719</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S25" t="n">
         <v>202.3274731650516</v>
@@ -2530,19 +2530,19 @@
         <v>222.6279636120047</v>
       </c>
       <c r="U25" t="n">
-        <v>127.1136771630372</v>
+        <v>212.780206531708</v>
       </c>
       <c r="V25" t="n">
-        <v>93.00017571526291</v>
+        <v>93.00017571526283</v>
       </c>
       <c r="W25" t="n">
-        <v>127.3855307280259</v>
+        <v>127.3855307280258</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>66.57218778047198</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.4471857435297</v>
+        <v>59.44718574352962</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.165107859198</v>
+        <v>303.1651078591979</v>
       </c>
       <c r="C26" t="n">
-        <v>285.704157966725</v>
+        <v>285.7041579667249</v>
       </c>
       <c r="D26" t="n">
-        <v>275.1143078164004</v>
+        <v>275.1143078164003</v>
       </c>
       <c r="E26" t="n">
-        <v>302.3616362679792</v>
+        <v>302.3616362679791</v>
       </c>
       <c r="F26" t="n">
-        <v>327.3073119374289</v>
+        <v>327.3073119374288</v>
       </c>
       <c r="G26" t="n">
-        <v>332.9594913636451</v>
+        <v>332.959491363645</v>
       </c>
       <c r="H26" t="n">
-        <v>231.4915937356467</v>
+        <v>231.4915937356465</v>
       </c>
       <c r="I26" t="n">
-        <v>23.94276850040937</v>
+        <v>23.94276850040927</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.22713566997376</v>
+        <v>66.22713566997368</v>
       </c>
       <c r="T26" t="n">
-        <v>131.3816879599484</v>
+        <v>131.3816879599482</v>
       </c>
       <c r="U26" t="n">
-        <v>171.5549581157774</v>
+        <v>171.5549581157773</v>
       </c>
       <c r="V26" t="n">
-        <v>248.1835246658524</v>
+        <v>248.1835246658522</v>
       </c>
       <c r="W26" t="n">
-        <v>269.6722349131305</v>
+        <v>269.6722349131304</v>
       </c>
       <c r="X26" t="n">
-        <v>290.1623668741865</v>
+        <v>290.1623668741864</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.669204851771</v>
+        <v>306.6692048517709</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.2632463776548</v>
+        <v>100.2632463776547</v>
       </c>
       <c r="C28" t="n">
-        <v>87.67808729434529</v>
+        <v>87.67808729434519</v>
       </c>
       <c r="D28" t="n">
-        <v>69.04673921392981</v>
+        <v>69.04673921392971</v>
       </c>
       <c r="E28" t="n">
-        <v>66.86522884228663</v>
+        <v>66.86522884228653</v>
       </c>
       <c r="F28" t="n">
-        <v>65.8523142186487</v>
+        <v>65.8523142186486</v>
       </c>
       <c r="G28" t="n">
-        <v>87.17769483121781</v>
+        <v>87.17769483121771</v>
       </c>
       <c r="H28" t="n">
-        <v>71.59325136630862</v>
+        <v>71.59325136630852</v>
       </c>
       <c r="I28" t="n">
-        <v>38.45470665437193</v>
+        <v>38.45470665437183</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.7651314296843</v>
+        <v>41.7651314296842</v>
       </c>
       <c r="S28" t="n">
-        <v>122.7587393607691</v>
+        <v>122.758739360769</v>
       </c>
       <c r="T28" t="n">
-        <v>143.0592298077221</v>
+        <v>143.059229807722</v>
       </c>
       <c r="U28" t="n">
-        <v>206.6824109673197</v>
+        <v>206.6824109673196</v>
       </c>
       <c r="V28" t="n">
-        <v>172.5689095195455</v>
+        <v>172.5689095195453</v>
       </c>
       <c r="W28" t="n">
-        <v>206.9542645323085</v>
+        <v>206.9542645323083</v>
       </c>
       <c r="X28" t="n">
-        <v>146.1409215847546</v>
+        <v>146.1409215847545</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.0159195478122</v>
+        <v>139.0159195478121</v>
       </c>
     </row>
     <row r="29">
@@ -2801,16 +2801,16 @@
         <v>302.3616362679792</v>
       </c>
       <c r="F29" t="n">
-        <v>327.3073119374289</v>
+        <v>327.3073119374288</v>
       </c>
       <c r="G29" t="n">
-        <v>332.9594913636451</v>
+        <v>332.959491363645</v>
       </c>
       <c r="H29" t="n">
         <v>231.4915937356466</v>
       </c>
       <c r="I29" t="n">
-        <v>23.94276850040936</v>
+        <v>23.94276850040937</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,19 +2843,19 @@
         <v>66.22713566997373</v>
       </c>
       <c r="T29" t="n">
-        <v>131.3816879599484</v>
+        <v>131.3816879599483</v>
       </c>
       <c r="U29" t="n">
-        <v>171.5549581157774</v>
+        <v>171.5549581157773</v>
       </c>
       <c r="V29" t="n">
-        <v>248.1835246658524</v>
+        <v>248.1835246658523</v>
       </c>
       <c r="W29" t="n">
-        <v>269.6722349131305</v>
+        <v>269.6722349131304</v>
       </c>
       <c r="X29" t="n">
-        <v>290.1623668741865</v>
+        <v>290.1623668741864</v>
       </c>
       <c r="Y29" t="n">
         <v>306.669204851771</v>
@@ -2889,7 +2889,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I30" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285296</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084475</v>
       </c>
       <c r="S30" t="n">
-        <v>144.1093279635753</v>
+        <v>144.1093279635754</v>
       </c>
       <c r="T30" t="n">
         <v>194.1811721786702</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.2632463776548</v>
+        <v>100.2632463776547</v>
       </c>
       <c r="C31" t="n">
-        <v>87.67808729434529</v>
+        <v>87.67808729434526</v>
       </c>
       <c r="D31" t="n">
-        <v>69.04673921392981</v>
+        <v>69.04673921392978</v>
       </c>
       <c r="E31" t="n">
-        <v>66.86522884228663</v>
+        <v>66.8652288422866</v>
       </c>
       <c r="F31" t="n">
-        <v>65.8523142186487</v>
+        <v>65.85231421864867</v>
       </c>
       <c r="G31" t="n">
-        <v>87.17769483121779</v>
+        <v>87.17769483121776</v>
       </c>
       <c r="H31" t="n">
-        <v>71.59325136630862</v>
+        <v>71.59325136630859</v>
       </c>
       <c r="I31" t="n">
-        <v>38.45470665437193</v>
+        <v>38.45470665437191</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.7651314296843</v>
+        <v>41.76513142968429</v>
       </c>
       <c r="S31" t="n">
         <v>122.7587393607691</v>
@@ -3007,10 +3007,10 @@
         <v>206.6824109673197</v>
       </c>
       <c r="V31" t="n">
-        <v>172.5689095195455</v>
+        <v>172.5689095195454</v>
       </c>
       <c r="W31" t="n">
-        <v>206.9542645323085</v>
+        <v>206.9542645323084</v>
       </c>
       <c r="X31" t="n">
         <v>146.1409215847546</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.1651078591981</v>
+        <v>303.165107859198</v>
       </c>
       <c r="C32" t="n">
-        <v>285.7041579667251</v>
+        <v>285.704157966725</v>
       </c>
       <c r="D32" t="n">
-        <v>275.1143078164005</v>
+        <v>275.1143078164004</v>
       </c>
       <c r="E32" t="n">
-        <v>302.3616362679793</v>
+        <v>302.3616362679792</v>
       </c>
       <c r="F32" t="n">
         <v>327.3073119374289</v>
       </c>
       <c r="G32" t="n">
-        <v>332.9594913636452</v>
+        <v>332.9594913636451</v>
       </c>
       <c r="H32" t="n">
-        <v>231.4915937356467</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I32" t="n">
-        <v>23.9427685004094</v>
+        <v>23.94276850040936</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.22713566997378</v>
+        <v>66.22713566997375</v>
       </c>
       <c r="T32" t="n">
         <v>131.3816879599484</v>
@@ -3095,7 +3095,7 @@
         <v>290.1623668741865</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.6692048517711</v>
+        <v>306.669204851771</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S33" t="n">
         <v>144.1093279635753</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.2632463776548</v>
+        <v>100.2632463776547</v>
       </c>
       <c r="C34" t="n">
-        <v>87.67808729434533</v>
+        <v>87.67808729434527</v>
       </c>
       <c r="D34" t="n">
-        <v>69.04673921392985</v>
+        <v>69.0467392139298</v>
       </c>
       <c r="E34" t="n">
-        <v>66.86522884228667</v>
+        <v>66.86522884228661</v>
       </c>
       <c r="F34" t="n">
-        <v>65.85231421864874</v>
+        <v>65.85231421864869</v>
       </c>
       <c r="G34" t="n">
-        <v>87.17769483121785</v>
+        <v>87.17769483121779</v>
       </c>
       <c r="H34" t="n">
-        <v>71.59325136630866</v>
+        <v>71.59325136630861</v>
       </c>
       <c r="I34" t="n">
-        <v>38.45470665437197</v>
+        <v>38.45470665437192</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76513142968434</v>
+        <v>41.76513142968429</v>
       </c>
       <c r="S34" t="n">
         <v>122.7587393607691</v>
       </c>
       <c r="T34" t="n">
-        <v>143.0592298077222</v>
+        <v>143.0592298077221</v>
       </c>
       <c r="U34" t="n">
-        <v>206.6824109673198</v>
+        <v>206.6824109673197</v>
       </c>
       <c r="V34" t="n">
         <v>172.5689095195455</v>
@@ -3250,10 +3250,10 @@
         <v>206.9542645323085</v>
       </c>
       <c r="X34" t="n">
-        <v>146.1409215847547</v>
+        <v>146.1409215847546</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.0159195478123</v>
+        <v>139.0159195478122</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.9379721892242</v>
+        <v>236.9379721892243</v>
       </c>
       <c r="C35" t="n">
-        <v>219.4770222967512</v>
+        <v>219.4770222967513</v>
       </c>
       <c r="D35" t="n">
-        <v>208.8871721464266</v>
+        <v>208.8871721464267</v>
       </c>
       <c r="E35" t="n">
-        <v>236.1345005980054</v>
+        <v>236.1345005980055</v>
       </c>
       <c r="F35" t="n">
-        <v>261.0801762674551</v>
+        <v>261.0801762674552</v>
       </c>
       <c r="G35" t="n">
-        <v>266.7323556936713</v>
+        <v>266.7323556936714</v>
       </c>
       <c r="H35" t="n">
-        <v>165.2644580656728</v>
+        <v>165.2644580656729</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>65.15455228997456</v>
+        <v>65.15455228997465</v>
       </c>
       <c r="U35" t="n">
-        <v>105.3278224458036</v>
+        <v>105.3278224458037</v>
       </c>
       <c r="V35" t="n">
-        <v>181.9563889958786</v>
+        <v>181.9563889958787</v>
       </c>
       <c r="W35" t="n">
-        <v>203.4450992431567</v>
+        <v>203.4450992431568</v>
       </c>
       <c r="X35" t="n">
-        <v>223.9352312042127</v>
+        <v>223.9352312042128</v>
       </c>
       <c r="Y35" t="n">
         <v>240.4420691817973</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S36" t="n">
         <v>144.1093279635753</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.03611070768096</v>
+        <v>34.03611070768105</v>
       </c>
       <c r="C37" t="n">
-        <v>21.4509516243715</v>
+        <v>21.45095162437158</v>
       </c>
       <c r="D37" t="n">
-        <v>2.819603543956021</v>
+        <v>2.819603543956106</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6380931723128356</v>
+        <v>0.6380931723129208</v>
       </c>
       <c r="F37" t="n">
-        <v>121.2752453593663</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7464286355003</v>
+        <v>20.9505591612441</v>
       </c>
       <c r="H37" t="n">
-        <v>5.36611569633483</v>
+        <v>5.366115696334917</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.8132411190759</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>121.3338652339668</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>56.53160369079529</v>
+        <v>56.53160369079538</v>
       </c>
       <c r="T37" t="n">
-        <v>76.83209413774831</v>
+        <v>76.83209413774841</v>
       </c>
       <c r="U37" t="n">
-        <v>140.4552752973459</v>
+        <v>140.455275297346</v>
       </c>
       <c r="V37" t="n">
-        <v>106.3417738495717</v>
+        <v>106.3417738495718</v>
       </c>
       <c r="W37" t="n">
-        <v>140.7271288623347</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>79.91378591478082</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.78878387783845</v>
+        <v>72.78878387783854</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.9379721892242</v>
+        <v>236.9379721892243</v>
       </c>
       <c r="C38" t="n">
-        <v>219.4770222967512</v>
+        <v>219.4770222967513</v>
       </c>
       <c r="D38" t="n">
-        <v>208.8871721464266</v>
+        <v>208.8871721464267</v>
       </c>
       <c r="E38" t="n">
-        <v>236.1345005980054</v>
+        <v>236.1345005980055</v>
       </c>
       <c r="F38" t="n">
-        <v>261.0801762674551</v>
+        <v>261.0801762674552</v>
       </c>
       <c r="G38" t="n">
-        <v>266.7323556936713</v>
+        <v>266.7323556936714</v>
       </c>
       <c r="H38" t="n">
-        <v>165.2644580656728</v>
+        <v>165.2644580656729</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,19 +3554,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.15455228997456</v>
+        <v>65.15455228997465</v>
       </c>
       <c r="U38" t="n">
-        <v>105.3278224458036</v>
+        <v>105.3278224458037</v>
       </c>
       <c r="V38" t="n">
-        <v>181.9563889958786</v>
+        <v>181.9563889958787</v>
       </c>
       <c r="W38" t="n">
-        <v>203.4450992431567</v>
+        <v>203.4450992431568</v>
       </c>
       <c r="X38" t="n">
-        <v>223.9352312042127</v>
+        <v>223.9352312042128</v>
       </c>
       <c r="Y38" t="n">
         <v>240.4420691817973</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S39" t="n">
         <v>144.1093279635753</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.03611070768096</v>
+        <v>34.03611070768105</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>118.6390141947724</v>
       </c>
       <c r="D40" t="n">
-        <v>2.819603543956021</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6380931723128356</v>
+        <v>0.6380931723129208</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>20.95055916124402</v>
+        <v>20.9505591612441</v>
       </c>
       <c r="H40" t="n">
-        <v>5.36611569633483</v>
+        <v>5.366115696334917</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.344844809872</v>
+        <v>56.53160369079538</v>
       </c>
       <c r="T40" t="n">
-        <v>76.83209413774831</v>
+        <v>76.83209413774841</v>
       </c>
       <c r="U40" t="n">
-        <v>140.4552752973459</v>
+        <v>140.455275297346</v>
       </c>
       <c r="V40" t="n">
-        <v>106.3417738495717</v>
+        <v>106.3417738495718</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>140.7271288623348</v>
       </c>
       <c r="X40" t="n">
-        <v>79.91378591478082</v>
+        <v>79.9137859147809</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.78878387783845</v>
+        <v>72.78878387783854</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.9379721892242</v>
+        <v>236.9379721892243</v>
       </c>
       <c r="C41" t="n">
-        <v>219.4770222967512</v>
+        <v>219.4770222967513</v>
       </c>
       <c r="D41" t="n">
-        <v>208.8871721464266</v>
+        <v>208.8871721464267</v>
       </c>
       <c r="E41" t="n">
-        <v>236.1345005980054</v>
+        <v>236.1345005980055</v>
       </c>
       <c r="F41" t="n">
-        <v>261.0801762674551</v>
+        <v>261.0801762674552</v>
       </c>
       <c r="G41" t="n">
-        <v>266.7323556936713</v>
+        <v>266.7323556936714</v>
       </c>
       <c r="H41" t="n">
-        <v>165.2644580656728</v>
+        <v>165.2644580656729</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>65.15455228997456</v>
+        <v>65.15455228997465</v>
       </c>
       <c r="U41" t="n">
-        <v>105.3278224458036</v>
+        <v>105.3278224458037</v>
       </c>
       <c r="V41" t="n">
-        <v>181.9563889958786</v>
+        <v>181.9563889958787</v>
       </c>
       <c r="W41" t="n">
-        <v>203.4450992431567</v>
+        <v>203.4450992431568</v>
       </c>
       <c r="X41" t="n">
-        <v>223.9352312042127</v>
+        <v>223.9352312042128</v>
       </c>
       <c r="Y41" t="n">
         <v>240.4420691817973</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S42" t="n">
         <v>144.1093279635753</v>
@@ -3895,31 +3895,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.03611070768096</v>
+        <v>34.03611070768105</v>
       </c>
       <c r="C43" t="n">
-        <v>21.4509516243715</v>
+        <v>21.45095162437158</v>
       </c>
       <c r="D43" t="n">
-        <v>2.819603543956021</v>
+        <v>94.63822211084371</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6380931723128356</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>20.95055916124402</v>
+        <v>20.9505591612441</v>
       </c>
       <c r="H43" t="n">
-        <v>5.36611569633483</v>
+        <v>5.366115696334917</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>153.344844809872</v>
+        <v>56.53160369079538</v>
       </c>
       <c r="T43" t="n">
-        <v>76.83209413774831</v>
+        <v>76.83209413774841</v>
       </c>
       <c r="U43" t="n">
-        <v>140.4552752973459</v>
+        <v>140.455275297346</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>106.3417738495718</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>140.7271288623348</v>
       </c>
       <c r="X43" t="n">
-        <v>79.91378591478082</v>
+        <v>79.9137859147809</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.78878387783845</v>
+        <v>72.78878387783854</v>
       </c>
     </row>
     <row r="44">
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>65.1545522899746</v>
+        <v>65.15455228997462</v>
       </c>
       <c r="U44" t="n">
         <v>105.3278224458036</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084461</v>
       </c>
       <c r="S45" t="n">
         <v>144.1093279635753</v>
@@ -4141,22 +4141,22 @@
         <v>2.819603543956077</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6380931723128924</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>20.95055916124407</v>
       </c>
       <c r="H46" t="n">
-        <v>102.1793568154112</v>
+        <v>5.366115696334889</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.53160369079534</v>
+        <v>56.53160369079535</v>
       </c>
       <c r="T46" t="n">
-        <v>76.83209413774837</v>
+        <v>76.83209413774838</v>
       </c>
       <c r="U46" t="n">
         <v>140.455275297346</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>106.3417738495717</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>140.7271288623347</v>
       </c>
       <c r="X46" t="n">
-        <v>79.91378591478087</v>
+        <v>171.7324044816687</v>
       </c>
       <c r="Y46" t="n">
         <v>72.78878387783851</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1088.086802833656</v>
+        <v>865.0604807960115</v>
       </c>
       <c r="C11" t="n">
-        <v>799.4967442814082</v>
+        <v>576.470422243764</v>
       </c>
       <c r="D11" t="n">
-        <v>672.4315658135164</v>
+        <v>576.470422243764</v>
       </c>
       <c r="E11" t="n">
-        <v>367.0157716034363</v>
+        <v>271.0546280336839</v>
       </c>
       <c r="F11" t="n">
-        <v>36.40232520199298</v>
+        <v>271.0546280336839</v>
       </c>
       <c r="G11" t="n">
-        <v>36.40232520199298</v>
+        <v>271.0546280336839</v>
       </c>
       <c r="H11" t="n">
-        <v>36.40232520199298</v>
+        <v>37.22473537141467</v>
       </c>
       <c r="I11" t="n">
         <v>36.40232520199298</v>
@@ -5042,22 +5042,22 @@
         <v>257.7009633964342</v>
       </c>
       <c r="K11" t="n">
-        <v>389.2111020981282</v>
+        <v>389.2111020981281</v>
       </c>
       <c r="L11" t="n">
-        <v>615.0579230265242</v>
+        <v>589.2628199374559</v>
       </c>
       <c r="M11" t="n">
-        <v>869.3234424062427</v>
+        <v>843.5283393171744</v>
       </c>
       <c r="N11" t="n">
-        <v>1132.317052094774</v>
+        <v>1106.521949005706</v>
       </c>
       <c r="O11" t="n">
-        <v>1367.319198855443</v>
+        <v>1341.524095766375</v>
       </c>
       <c r="P11" t="n">
-        <v>1533.387093289898</v>
+        <v>1533.387093289899</v>
       </c>
       <c r="Q11" t="n">
         <v>1820.116260099649</v>
@@ -5066,25 +5066,25 @@
         <v>1820.116260099649</v>
       </c>
       <c r="S11" t="n">
-        <v>1820.116260099649</v>
+        <v>1753.220163463312</v>
       </c>
       <c r="T11" t="n">
-        <v>1687.407484382529</v>
+        <v>1620.511387746192</v>
       </c>
       <c r="U11" t="n">
-        <v>1687.407484382529</v>
+        <v>1447.223551265609</v>
       </c>
       <c r="V11" t="n">
-        <v>1687.407484382529</v>
+        <v>1447.223551265609</v>
       </c>
       <c r="W11" t="n">
-        <v>1687.407484382529</v>
+        <v>1174.827354383659</v>
       </c>
       <c r="X11" t="n">
-        <v>1394.314184509613</v>
+        <v>1174.827354383659</v>
       </c>
       <c r="Y11" t="n">
-        <v>1394.314184509613</v>
+        <v>865.0604807960115</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>499.8180409158266</v>
+        <v>740.9354160803192</v>
       </c>
       <c r="C12" t="n">
-        <v>405.7374700228638</v>
+        <v>566.4823867991922</v>
       </c>
       <c r="D12" t="n">
-        <v>337.1755187497767</v>
+        <v>417.547977137941</v>
       </c>
       <c r="E12" t="n">
-        <v>258.3105221324854</v>
+        <v>258.3105221324855</v>
       </c>
       <c r="F12" t="n">
         <v>111.7759641593704</v>
       </c>
       <c r="G12" t="n">
-        <v>54.91708700790758</v>
+        <v>54.9170870079076</v>
       </c>
       <c r="H12" t="n">
         <v>36.40232520199298</v>
@@ -5118,25 +5118,25 @@
         <v>36.40232520199298</v>
       </c>
       <c r="J12" t="n">
-        <v>49.6827733931501</v>
+        <v>49.68277339315007</v>
       </c>
       <c r="K12" t="n">
-        <v>238.3481059086163</v>
+        <v>412.3565839978809</v>
       </c>
       <c r="L12" t="n">
-        <v>420.2802554311708</v>
+        <v>862.8353583725441</v>
       </c>
       <c r="M12" t="n">
-        <v>651.9433609111435</v>
+        <v>1094.498463852517</v>
       </c>
       <c r="N12" t="n">
-        <v>904.1465443738339</v>
+        <v>1346.701647315207</v>
       </c>
       <c r="O12" t="n">
-        <v>1112.643390152233</v>
+        <v>1555.198493093606</v>
       </c>
       <c r="P12" t="n">
-        <v>1563.122164526896</v>
+        <v>1703.202526994114</v>
       </c>
       <c r="Q12" t="n">
         <v>1820.116260099649</v>
@@ -5148,22 +5148,22 @@
         <v>1746.85411792048</v>
       </c>
       <c r="T12" t="n">
-        <v>1560.042234315591</v>
+        <v>1631.083978148371</v>
       </c>
       <c r="U12" t="n">
-        <v>1331.917266701833</v>
+        <v>1483.331468922777</v>
       </c>
       <c r="V12" t="n">
-        <v>1096.76515847009</v>
+        <v>1328.551819079198</v>
       </c>
       <c r="W12" t="n">
-        <v>922.9002601300529</v>
+        <v>1154.686920739161</v>
       </c>
       <c r="X12" t="n">
-        <v>715.04875992452</v>
+        <v>1027.207878921792</v>
       </c>
       <c r="Y12" t="n">
-        <v>587.6609195477304</v>
+        <v>899.8200385450026</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.9861862334155</v>
+        <v>527.9861862334161</v>
       </c>
       <c r="C13" t="n">
-        <v>439.4224616936729</v>
+        <v>439.4224616936734</v>
       </c>
       <c r="D13" t="n">
-        <v>369.6782806695013</v>
+        <v>369.6782806695019</v>
       </c>
       <c r="E13" t="n">
-        <v>302.1376454752724</v>
+        <v>302.137645475273</v>
       </c>
       <c r="F13" t="n">
-        <v>235.6201563655262</v>
+        <v>235.6201563655268</v>
       </c>
       <c r="G13" t="n">
-        <v>147.5618787582355</v>
+        <v>147.5618787582362</v>
       </c>
       <c r="H13" t="n">
-        <v>75.24546323671208</v>
+        <v>75.24546323671234</v>
       </c>
       <c r="I13" t="n">
         <v>36.40232520199298</v>
@@ -5200,13 +5200,13 @@
         <v>109.8596221047546</v>
       </c>
       <c r="K13" t="n">
-        <v>309.7340958180465</v>
+        <v>309.7340958180464</v>
       </c>
       <c r="L13" t="n">
         <v>599.0017100013556</v>
       </c>
       <c r="M13" t="n">
-        <v>910.1008877035641</v>
+        <v>910.100887703564</v>
       </c>
       <c r="N13" t="n">
         <v>1221.11048570127</v>
@@ -5221,28 +5221,28 @@
         <v>1820.116260099649</v>
       </c>
       <c r="R13" t="n">
-        <v>1777.929258655523</v>
+        <v>1777.929258655524</v>
       </c>
       <c r="S13" t="n">
-        <v>1653.930532028483</v>
+        <v>1653.930532028484</v>
       </c>
       <c r="T13" t="n">
-        <v>1509.42625949543</v>
+        <v>1509.426259495432</v>
       </c>
       <c r="U13" t="n">
-        <v>1300.656147407229</v>
+        <v>1300.65614740723</v>
       </c>
       <c r="V13" t="n">
         <v>1126.344117589507</v>
       </c>
       <c r="W13" t="n">
-        <v>917.2994059407101</v>
+        <v>917.2994059407108</v>
       </c>
       <c r="X13" t="n">
-        <v>769.682313430857</v>
+        <v>769.6823134308577</v>
       </c>
       <c r="Y13" t="n">
-        <v>629.2621926754911</v>
+        <v>629.2621926754916</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1513.594707995559</v>
+        <v>1526.498020320347</v>
       </c>
       <c r="C14" t="n">
-        <v>1225.004649443312</v>
+        <v>1237.907961768099</v>
       </c>
       <c r="D14" t="n">
-        <v>949.8026535102279</v>
+        <v>960.0147215495131</v>
       </c>
       <c r="E14" t="n">
-        <v>644.3868593001478</v>
+        <v>654.5989273394333</v>
       </c>
       <c r="F14" t="n">
-        <v>644.3868593001478</v>
+        <v>323.98548093799</v>
       </c>
       <c r="G14" t="n">
-        <v>308.0641407510113</v>
+        <v>308.0641407510115</v>
       </c>
       <c r="H14" t="n">
-        <v>74.23424808874222</v>
+        <v>74.23424808874219</v>
       </c>
       <c r="I14" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J14" t="n">
         <v>271.3482716363054</v>
       </c>
       <c r="K14" t="n">
-        <v>723.7623687834525</v>
+        <v>723.7623687834524</v>
       </c>
       <c r="L14" t="n">
-        <v>978.8426139303115</v>
+        <v>923.8140866227802</v>
       </c>
       <c r="M14" t="n">
-        <v>1233.10813331003</v>
+        <v>1178.079606002499</v>
       </c>
       <c r="N14" t="n">
-        <v>1496.101742998562</v>
+        <v>1441.073215691031</v>
       </c>
       <c r="O14" t="n">
-        <v>1731.10388975923</v>
+        <v>1706.932699903004</v>
       </c>
       <c r="P14" t="n">
-        <v>2215.752505283454</v>
+        <v>2191.581315427227</v>
       </c>
       <c r="Q14" t="n">
-        <v>2502.481672093204</v>
+        <v>2478.310482236977</v>
       </c>
       <c r="R14" t="n">
         <v>2502.481672093204</v>
@@ -5306,22 +5306,22 @@
         <v>2435.585575456867</v>
       </c>
       <c r="T14" t="n">
-        <v>2302.876799739747</v>
+        <v>2435.585575456867</v>
       </c>
       <c r="U14" t="n">
-        <v>2129.588963259164</v>
+        <v>2435.585575456867</v>
       </c>
       <c r="V14" t="n">
-        <v>2129.588963259164</v>
+        <v>2435.585575456867</v>
       </c>
       <c r="W14" t="n">
-        <v>2129.588963259164</v>
+        <v>2435.585575456867</v>
       </c>
       <c r="X14" t="n">
-        <v>2129.588963259164</v>
+        <v>2142.492275583952</v>
       </c>
       <c r="Y14" t="n">
-        <v>1819.822089671517</v>
+        <v>1832.725401996304</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.7353631895044</v>
+        <v>851.3629048013408</v>
       </c>
       <c r="C15" t="n">
-        <v>757.2823339083774</v>
+        <v>676.9098755202139</v>
       </c>
       <c r="D15" t="n">
-        <v>608.3479242471261</v>
+        <v>527.9754658589626</v>
       </c>
       <c r="E15" t="n">
-        <v>449.1104692416706</v>
+        <v>368.7380108535071</v>
       </c>
       <c r="F15" t="n">
-        <v>302.5759112685556</v>
+        <v>222.2034528803921</v>
       </c>
       <c r="G15" t="n">
-        <v>187.6093093559964</v>
+        <v>165.3445757289293</v>
       </c>
       <c r="H15" t="n">
-        <v>88.72208916191757</v>
+        <v>88.72208916191758</v>
       </c>
       <c r="I15" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J15" t="n">
         <v>188.160206620026</v>
       </c>
       <c r="K15" t="n">
-        <v>550.834017224757</v>
+        <v>550.8340172247568</v>
       </c>
       <c r="L15" t="n">
         <v>1099.898108597736</v>
@@ -5373,34 +5373,34 @@
         <v>1792.261243318799</v>
       </c>
       <c r="P15" t="n">
-        <v>2245.487576520452</v>
+        <v>2255.543418172844</v>
       </c>
       <c r="Q15" t="n">
         <v>2502.481672093204</v>
       </c>
       <c r="R15" t="n">
-        <v>2494.412049266856</v>
+        <v>2494.412049266857</v>
       </c>
       <c r="S15" t="n">
         <v>2348.847071525871</v>
       </c>
       <c r="T15" t="n">
-        <v>2233.076931753762</v>
+        <v>2152.704473365598</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.951964140003</v>
+        <v>1924.57950575184</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.799855908261</v>
+        <v>1689.427397520097</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.562499180059</v>
+        <v>1435.190040791896</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.710998974526</v>
+        <v>1227.338540586363</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.950700209572</v>
+        <v>1019.578241821409</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>541.633494473287</v>
+        <v>541.6334944732868</v>
       </c>
       <c r="C16" t="n">
-        <v>453.0697699335443</v>
+        <v>453.0697699335441</v>
       </c>
       <c r="D16" t="n">
-        <v>383.3255889093728</v>
+        <v>383.3255889093726</v>
       </c>
       <c r="E16" t="n">
-        <v>315.7849537151439</v>
+        <v>315.7849537151438</v>
       </c>
       <c r="F16" t="n">
         <v>249.2674646053977</v>
@@ -5428,58 +5428,58 @@
         <v>161.209186998107</v>
       </c>
       <c r="H16" t="n">
-        <v>88.89277147658319</v>
+        <v>88.89277147658316</v>
       </c>
       <c r="I16" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J16" t="n">
         <v>123.5069303446257</v>
       </c>
       <c r="K16" t="n">
-        <v>323.3814040579176</v>
+        <v>323.3814040579177</v>
       </c>
       <c r="L16" t="n">
-        <v>612.6490182412265</v>
+        <v>612.6490182412269</v>
       </c>
       <c r="M16" t="n">
-        <v>923.7481959434351</v>
+        <v>923.7481959434356</v>
       </c>
       <c r="N16" t="n">
-        <v>1234.757793941141</v>
+        <v>1234.757793941142</v>
       </c>
       <c r="O16" t="n">
         <v>1512.022588807296</v>
       </c>
       <c r="P16" t="n">
-        <v>1737.118934309929</v>
+        <v>1737.118934309928</v>
       </c>
       <c r="Q16" t="n">
-        <v>1833.76356833952</v>
+        <v>1833.763568339519</v>
       </c>
       <c r="R16" t="n">
-        <v>1791.576566895395</v>
+        <v>1791.576566895394</v>
       </c>
       <c r="S16" t="n">
         <v>1667.577840268355</v>
       </c>
       <c r="T16" t="n">
-        <v>1523.073567735303</v>
+        <v>1523.073567735302</v>
       </c>
       <c r="U16" t="n">
-        <v>1314.303455647101</v>
+        <v>1314.3034556471</v>
       </c>
       <c r="V16" t="n">
-        <v>1139.991425829378</v>
+        <v>1139.991425829377</v>
       </c>
       <c r="W16" t="n">
-        <v>930.9467141805817</v>
+        <v>930.946714180581</v>
       </c>
       <c r="X16" t="n">
-        <v>783.3296216707284</v>
+        <v>783.329621670728</v>
       </c>
       <c r="Y16" t="n">
-        <v>642.9095009153625</v>
+        <v>642.9095009153622</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1340.480033706642</v>
+        <v>1326.918087638774</v>
       </c>
       <c r="C17" t="n">
-        <v>1132.262433542558</v>
+        <v>1118.700487474691</v>
       </c>
       <c r="D17" t="n">
-        <v>934.7416517121361</v>
+        <v>921.1797056442688</v>
       </c>
       <c r="E17" t="n">
-        <v>709.6983158902202</v>
+        <v>709.6983158902206</v>
       </c>
       <c r="F17" t="n">
-        <v>459.457327876941</v>
+        <v>459.4573278769415</v>
       </c>
       <c r="G17" t="n">
-        <v>203.5070677159692</v>
+        <v>203.5070677159691</v>
       </c>
       <c r="H17" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="I17" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J17" t="n">
         <v>271.3482716363054</v>
@@ -5522,16 +5522,16 @@
         <v>923.8140866227802</v>
       </c>
       <c r="M17" t="n">
-        <v>1178.079606002499</v>
+        <v>1208.936943453804</v>
       </c>
       <c r="N17" t="n">
         <v>1471.930553142335</v>
       </c>
       <c r="O17" t="n">
-        <v>1706.932699903003</v>
+        <v>1706.932699903004</v>
       </c>
       <c r="P17" t="n">
-        <v>2191.581315427226</v>
+        <v>2191.581315427227</v>
       </c>
       <c r="Q17" t="n">
         <v>2478.310482236977</v>
@@ -5549,10 +5549,10 @@
         <v>2357.22997667183</v>
       </c>
       <c r="V17" t="n">
-        <v>2186.912006104587</v>
+        <v>2186.912006104588</v>
       </c>
       <c r="W17" t="n">
-        <v>1994.888267610801</v>
+        <v>1994.888267610802</v>
       </c>
       <c r="X17" t="n">
         <v>1782.16742612605</v>
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>915.3276410965187</v>
+        <v>855.1128766224934</v>
       </c>
       <c r="C18" t="n">
-        <v>740.8746118153917</v>
+        <v>680.6598473413665</v>
       </c>
       <c r="D18" t="n">
-        <v>591.9402021541405</v>
+        <v>531.7254376801152</v>
       </c>
       <c r="E18" t="n">
-        <v>432.7027471486849</v>
+        <v>372.4879826746596</v>
       </c>
       <c r="F18" t="n">
-        <v>286.1681891755699</v>
+        <v>225.9534247015446</v>
       </c>
       <c r="G18" t="n">
-        <v>148.9368536359429</v>
+        <v>88.72208916191758</v>
       </c>
       <c r="H18" t="n">
-        <v>50.04963344186408</v>
+        <v>88.72208916191758</v>
       </c>
       <c r="I18" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J18" t="n">
-        <v>188.1602066200259</v>
+        <v>188.160206620026</v>
       </c>
       <c r="K18" t="n">
-        <v>468.326119632854</v>
+        <v>289.0134325823041</v>
       </c>
       <c r="L18" t="n">
-        <v>650.2582691554085</v>
+        <v>470.9455821048585</v>
       </c>
       <c r="M18" t="n">
-        <v>1269.622482998476</v>
+        <v>1090.309795947927</v>
       </c>
       <c r="N18" t="n">
-        <v>1888.986696841544</v>
+        <v>1709.674009790995</v>
       </c>
       <c r="O18" t="n">
-        <v>2097.483542619944</v>
+        <v>1918.170855569394</v>
       </c>
       <c r="P18" t="n">
         <v>2245.487576520452</v>
@@ -5616,28 +5616,28 @@
         <v>2502.481672093204</v>
       </c>
       <c r="R18" t="n">
-        <v>2494.412049266856</v>
+        <v>2498.162021088009</v>
       </c>
       <c r="S18" t="n">
-        <v>2412.811807821049</v>
+        <v>2352.597043347024</v>
       </c>
       <c r="T18" t="n">
-        <v>2216.669209660776</v>
+        <v>2156.454445186751</v>
       </c>
       <c r="U18" t="n">
-        <v>1988.544242047018</v>
+        <v>1928.329477572992</v>
       </c>
       <c r="V18" t="n">
-        <v>1753.392133815275</v>
+        <v>1693.17736934125</v>
       </c>
       <c r="W18" t="n">
-        <v>1499.154777087073</v>
+        <v>1438.940012613048</v>
       </c>
       <c r="X18" t="n">
-        <v>1291.303276881541</v>
+        <v>1231.088512407515</v>
       </c>
       <c r="Y18" t="n">
-        <v>1083.542978116587</v>
+        <v>1023.328213642561</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>380.0084099829202</v>
+        <v>318.6271642476692</v>
       </c>
       <c r="C19" t="n">
-        <v>211.0722270550133</v>
+        <v>310.4358980960907</v>
       </c>
       <c r="D19" t="n">
-        <v>211.0722270550133</v>
+        <v>160.319258683755</v>
       </c>
       <c r="E19" t="n">
-        <v>63.15913347262016</v>
+        <v>160.319258683755</v>
       </c>
       <c r="F19" t="n">
-        <v>63.15913347262016</v>
+        <v>160.319258683755</v>
       </c>
       <c r="G19" t="n">
-        <v>55.47331425349363</v>
+        <v>152.6334394646286</v>
       </c>
       <c r="H19" t="n">
-        <v>55.47331425349363</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="I19" t="n">
-        <v>55.47331425349363</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J19" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="K19" t="n">
         <v>171.1510606889162</v>
@@ -5695,28 +5695,28 @@
         <v>1208.894946173081</v>
       </c>
       <c r="R19" t="n">
-        <v>1208.894946173081</v>
+        <v>1086.335486340791</v>
       </c>
       <c r="S19" t="n">
-        <v>1165.268677934205</v>
+        <v>1042.709218101916</v>
       </c>
       <c r="T19" t="n">
-        <v>1101.136863789317</v>
+        <v>978.5774039570275</v>
       </c>
       <c r="U19" t="n">
-        <v>911.5609959922413</v>
+        <v>850.17975025699</v>
       </c>
       <c r="V19" t="n">
-        <v>656.8765077863544</v>
+        <v>756.2401788274316</v>
       </c>
       <c r="W19" t="n">
-        <v>528.2042545257221</v>
+        <v>627.5679255667994</v>
       </c>
       <c r="X19" t="n">
-        <v>460.9596204040332</v>
+        <v>560.3232914451105</v>
       </c>
       <c r="Y19" t="n">
-        <v>400.9119580368315</v>
+        <v>500.2756290779089</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1340.480033706642</v>
+        <v>1340.480033706641</v>
       </c>
       <c r="C20" t="n">
-        <v>1132.262433542559</v>
+        <v>1132.262433542558</v>
       </c>
       <c r="D20" t="n">
-        <v>934.7416517121366</v>
+        <v>934.7416517121361</v>
       </c>
       <c r="E20" t="n">
-        <v>709.6983158902207</v>
+        <v>709.6983158902203</v>
       </c>
       <c r="F20" t="n">
-        <v>459.4573278769415</v>
+        <v>459.4573278769413</v>
       </c>
       <c r="G20" t="n">
-        <v>203.5070677159692</v>
+        <v>203.5070677159691</v>
       </c>
       <c r="H20" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="I20" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J20" t="n">
         <v>271.3482716363054</v>
@@ -5765,10 +5765,10 @@
         <v>1441.073215691031</v>
       </c>
       <c r="O20" t="n">
-        <v>1706.932699903003</v>
+        <v>1706.932699903004</v>
       </c>
       <c r="P20" t="n">
-        <v>2191.581315427226</v>
+        <v>2191.581315427227</v>
       </c>
       <c r="Q20" t="n">
         <v>2478.310482236977</v>
@@ -5780,22 +5780,22 @@
         <v>2502.481672093204</v>
       </c>
       <c r="T20" t="n">
-        <v>2450.145354764249</v>
+        <v>2463.707300832115</v>
       </c>
       <c r="U20" t="n">
-        <v>2357.22997667183</v>
+        <v>2370.791922739697</v>
       </c>
       <c r="V20" t="n">
-        <v>2200.473952172456</v>
+        <v>2200.473952172455</v>
       </c>
       <c r="W20" t="n">
-        <v>2008.45021367867</v>
+        <v>2008.450213678669</v>
       </c>
       <c r="X20" t="n">
-        <v>1795.729372193919</v>
+        <v>1795.729372193918</v>
       </c>
       <c r="Y20" t="n">
-        <v>1566.334956994435</v>
+        <v>1566.334956994434</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>851.3629048013404</v>
+        <v>851.3629048013408</v>
       </c>
       <c r="C21" t="n">
-        <v>676.9098755202134</v>
+        <v>676.9098755202139</v>
       </c>
       <c r="D21" t="n">
-        <v>527.9754658589621</v>
+        <v>527.9754658589626</v>
       </c>
       <c r="E21" t="n">
-        <v>368.7380108535066</v>
+        <v>368.7380108535071</v>
       </c>
       <c r="F21" t="n">
-        <v>324.8406448956234</v>
+        <v>222.2034528803921</v>
       </c>
       <c r="G21" t="n">
         <v>187.6093093559964</v>
@@ -5826,34 +5826,34 @@
         <v>88.72208916191758</v>
       </c>
       <c r="I21" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J21" t="n">
-        <v>188.1602066200259</v>
+        <v>188.160206620026</v>
       </c>
       <c r="K21" t="n">
         <v>550.8340172247568</v>
       </c>
       <c r="L21" t="n">
-        <v>1089.842266945344</v>
+        <v>1099.898108597736</v>
       </c>
       <c r="M21" t="n">
-        <v>1321.505372425316</v>
+        <v>1331.561214077709</v>
       </c>
       <c r="N21" t="n">
-        <v>1573.708555888007</v>
+        <v>1583.764397540399</v>
       </c>
       <c r="O21" t="n">
-        <v>1782.205401666406</v>
+        <v>1792.261243318799</v>
       </c>
       <c r="P21" t="n">
-        <v>2245.487576520452</v>
+        <v>2255.543418172844</v>
       </c>
       <c r="Q21" t="n">
         <v>2502.481672093204</v>
       </c>
       <c r="R21" t="n">
-        <v>2494.412049266856</v>
+        <v>2494.412049266857</v>
       </c>
       <c r="S21" t="n">
         <v>2348.847071525871</v>
@@ -5862,19 +5862,19 @@
         <v>2152.704473365598</v>
       </c>
       <c r="U21" t="n">
-        <v>1924.579505751839</v>
+        <v>1924.57950575184</v>
       </c>
       <c r="V21" t="n">
         <v>1689.427397520097</v>
       </c>
       <c r="W21" t="n">
-        <v>1435.190040791895</v>
+        <v>1435.190040791896</v>
       </c>
       <c r="X21" t="n">
-        <v>1227.338540586362</v>
+        <v>1227.338540586363</v>
       </c>
       <c r="Y21" t="n">
-        <v>1019.578241821408</v>
+        <v>1019.578241821409</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>441.1866240799584</v>
+        <v>71.35039962419852</v>
       </c>
       <c r="C22" t="n">
-        <v>432.9953579283799</v>
+        <v>63.15913347262008</v>
       </c>
       <c r="D22" t="n">
-        <v>282.8787185160442</v>
+        <v>63.15913347262008</v>
       </c>
       <c r="E22" t="n">
-        <v>282.8787185160442</v>
+        <v>63.15913347262008</v>
       </c>
       <c r="F22" t="n">
-        <v>135.9887710181338</v>
+        <v>63.15913347262008</v>
       </c>
       <c r="G22" t="n">
         <v>55.47331425349363</v>
@@ -5908,7 +5908,7 @@
         <v>55.47331425349363</v>
       </c>
       <c r="J22" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="K22" t="n">
         <v>171.1510606889162</v>
@@ -5935,25 +5935,25 @@
         <v>1208.894946173081</v>
       </c>
       <c r="S22" t="n">
-        <v>1165.268677934205</v>
+        <v>1165.268677934206</v>
       </c>
       <c r="T22" t="n">
         <v>1101.136863789317</v>
       </c>
       <c r="U22" t="n">
-        <v>972.7392100892795</v>
+        <v>924.3928191861762</v>
       </c>
       <c r="V22" t="n">
-        <v>878.799638659721</v>
+        <v>830.4532477566178</v>
       </c>
       <c r="W22" t="n">
-        <v>750.1273853990888</v>
+        <v>701.7809944959856</v>
       </c>
       <c r="X22" t="n">
-        <v>682.8827512773998</v>
+        <v>473.7914435979683</v>
       </c>
       <c r="Y22" t="n">
-        <v>462.0901721338697</v>
+        <v>252.9988644544382</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1340.756808116191</v>
+        <v>1340.75680811619</v>
       </c>
       <c r="C23" t="n">
-        <v>1132.539207952108</v>
+        <v>1132.539207952107</v>
       </c>
       <c r="D23" t="n">
-        <v>935.0184261216855</v>
+        <v>935.0184261216846</v>
       </c>
       <c r="E23" t="n">
-        <v>709.9750902997697</v>
+        <v>709.9750902997689</v>
       </c>
       <c r="F23" t="n">
-        <v>459.7341022864907</v>
+        <v>459.73410228649</v>
       </c>
       <c r="G23" t="n">
-        <v>203.7838421255176</v>
+        <v>203.7838421255175</v>
       </c>
       <c r="H23" t="n">
-        <v>50.32640785141243</v>
+        <v>50.32640785141241</v>
       </c>
       <c r="I23" t="n">
-        <v>50.32640785141243</v>
+        <v>50.32640785141241</v>
       </c>
       <c r="J23" t="n">
         <v>271.6250460458537</v>
@@ -5993,46 +5993,46 @@
         <v>724.0391431930007</v>
       </c>
       <c r="L23" t="n">
-        <v>968.5101445515019</v>
+        <v>924.0908610323286</v>
       </c>
       <c r="M23" t="n">
-        <v>1222.77566393122</v>
+        <v>1178.356380412047</v>
       </c>
       <c r="N23" t="n">
-        <v>1485.769273619752</v>
+        <v>1485.769273619751</v>
       </c>
       <c r="O23" t="n">
-        <v>1720.771420380421</v>
+        <v>1720.77142038042</v>
       </c>
       <c r="P23" t="n">
-        <v>2205.420035904644</v>
+        <v>2205.420035904643</v>
       </c>
       <c r="Q23" t="n">
-        <v>2492.149202714394</v>
+        <v>2492.149202714393</v>
       </c>
       <c r="R23" t="n">
-        <v>2516.320392570621</v>
+        <v>2516.32039257062</v>
       </c>
       <c r="S23" t="n">
-        <v>2516.320392570621</v>
+        <v>2516.32039257062</v>
       </c>
       <c r="T23" t="n">
-        <v>2463.984075241666</v>
+        <v>2463.984075241665</v>
       </c>
       <c r="U23" t="n">
-        <v>2371.068697149247</v>
+        <v>2371.068697149246</v>
       </c>
       <c r="V23" t="n">
-        <v>2200.750726582005</v>
+        <v>2200.750726582004</v>
       </c>
       <c r="W23" t="n">
-        <v>2008.726988088219</v>
+        <v>2008.726988088218</v>
       </c>
       <c r="X23" t="n">
-        <v>1796.006146603468</v>
+        <v>1796.006146603467</v>
       </c>
       <c r="Y23" t="n">
-        <v>1566.611731403984</v>
+        <v>1566.611731403983</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>954.2768712261205</v>
+        <v>865.2016252787566</v>
       </c>
       <c r="C24" t="n">
-        <v>779.8238419449935</v>
+        <v>690.7485959976296</v>
       </c>
       <c r="D24" t="n">
-        <v>630.8894322837423</v>
+        <v>541.8141863363784</v>
       </c>
       <c r="E24" t="n">
-        <v>471.6519772782868</v>
+        <v>382.5767313309229</v>
       </c>
       <c r="F24" t="n">
-        <v>325.1174193051718</v>
+        <v>236.0421733578079</v>
       </c>
       <c r="G24" t="n">
-        <v>187.8860837655447</v>
+        <v>98.81083781818083</v>
       </c>
       <c r="H24" t="n">
-        <v>88.99886357146592</v>
+        <v>88.9988635714659</v>
       </c>
       <c r="I24" t="n">
-        <v>50.32640785141243</v>
+        <v>50.32640785141241</v>
       </c>
       <c r="J24" t="n">
         <v>188.4369810295743</v>
       </c>
       <c r="K24" t="n">
-        <v>551.1107916343052</v>
+        <v>551.1107916343051</v>
       </c>
       <c r="L24" t="n">
         <v>1100.174883007284</v>
       </c>
       <c r="M24" t="n">
-        <v>1331.837988487257</v>
+        <v>1335.344092902733</v>
       </c>
       <c r="N24" t="n">
-        <v>1584.041171949948</v>
+        <v>1587.547276365423</v>
       </c>
       <c r="O24" t="n">
         <v>1796.044122143823</v>
       </c>
       <c r="P24" t="n">
-        <v>2259.326296997869</v>
+        <v>2259.326296997868</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.320392570621</v>
+        <v>2516.32039257062</v>
       </c>
       <c r="R24" t="n">
-        <v>2508.250769744273</v>
+        <v>2508.250769744272</v>
       </c>
       <c r="S24" t="n">
-        <v>2451.761037950651</v>
+        <v>2362.685792003287</v>
       </c>
       <c r="T24" t="n">
-        <v>2255.618439790378</v>
+        <v>2166.543193843014</v>
       </c>
       <c r="U24" t="n">
-        <v>2027.493472176619</v>
+        <v>1938.418226229256</v>
       </c>
       <c r="V24" t="n">
-        <v>1792.341363944877</v>
+        <v>1703.266117997513</v>
       </c>
       <c r="W24" t="n">
-        <v>1538.104007216675</v>
+        <v>1449.028761269311</v>
       </c>
       <c r="X24" t="n">
-        <v>1330.252507011142</v>
+        <v>1241.177261063779</v>
       </c>
       <c r="Y24" t="n">
-        <v>1122.492208246189</v>
+        <v>1033.416962298825</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.62717403374702</v>
+        <v>71.62717403374684</v>
       </c>
       <c r="C25" t="n">
-        <v>63.4359078821685</v>
+        <v>63.43590788216839</v>
       </c>
       <c r="D25" t="n">
-        <v>63.4359078821685</v>
+        <v>63.43590788216839</v>
       </c>
       <c r="E25" t="n">
-        <v>63.4359078821685</v>
+        <v>63.43590788216839</v>
       </c>
       <c r="F25" t="n">
-        <v>63.4359078821685</v>
+        <v>63.43590788216839</v>
       </c>
       <c r="G25" t="n">
-        <v>55.75008866304197</v>
+        <v>55.75008866304195</v>
       </c>
       <c r="H25" t="n">
-        <v>55.75008866304197</v>
+        <v>55.75008866304195</v>
       </c>
       <c r="I25" t="n">
-        <v>55.75008866304197</v>
+        <v>55.75008866304195</v>
       </c>
       <c r="J25" t="n">
-        <v>50.32640785141243</v>
+        <v>50.32640785141241</v>
       </c>
       <c r="K25" t="n">
         <v>171.4278350984646</v>
       </c>
       <c r="L25" t="n">
-        <v>381.922402815534</v>
+        <v>381.9224028155339</v>
       </c>
       <c r="M25" t="n">
         <v>614.2485340515027</v>
@@ -6169,28 +6169,28 @@
         <v>1209.171720582629</v>
       </c>
       <c r="R25" t="n">
-        <v>1160.825329679526</v>
+        <v>1086.612260750339</v>
       </c>
       <c r="S25" t="n">
-        <v>956.4541446643225</v>
+        <v>882.2410757351357</v>
       </c>
       <c r="T25" t="n">
-        <v>731.5774137431057</v>
+        <v>657.3643448139189</v>
       </c>
       <c r="U25" t="n">
-        <v>603.1797600430682</v>
+        <v>442.4348432667391</v>
       </c>
       <c r="V25" t="n">
-        <v>509.2401886135096</v>
+        <v>348.4952718371807</v>
       </c>
       <c r="W25" t="n">
-        <v>380.5679353528774</v>
+        <v>219.8230185765486</v>
       </c>
       <c r="X25" t="n">
-        <v>152.5783844548601</v>
+        <v>152.5783844548597</v>
       </c>
       <c r="Y25" t="n">
-        <v>92.53072208765835</v>
+        <v>92.53072208765808</v>
       </c>
     </row>
     <row r="26">
@@ -6203,25 +6203,25 @@
         <v>1870.358268404897</v>
       </c>
       <c r="C26" t="n">
-        <v>1581.76820985265</v>
+        <v>1581.768209852649</v>
       </c>
       <c r="D26" t="n">
-        <v>1303.874969634064</v>
+        <v>1303.874969634063</v>
       </c>
       <c r="E26" t="n">
-        <v>998.4591754239834</v>
+        <v>998.4591754239832</v>
       </c>
       <c r="F26" t="n">
-        <v>667.8457290225401</v>
+        <v>667.8457290225397</v>
       </c>
       <c r="G26" t="n">
         <v>331.5230104734037</v>
       </c>
       <c r="H26" t="n">
-        <v>97.69311781113444</v>
+        <v>97.69311781113433</v>
       </c>
       <c r="I26" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J26" t="n">
         <v>294.8071413586975</v>
@@ -6233,43 +6233,43 @@
         <v>1360.757558750119</v>
       </c>
       <c r="M26" t="n">
-        <v>2060.041476287741</v>
+        <v>1615.023078129837</v>
       </c>
       <c r="N26" t="n">
-        <v>2586.462580901595</v>
+        <v>2267.881859811827</v>
       </c>
       <c r="O26" t="n">
-        <v>3198.456907112381</v>
+        <v>2879.876186022613</v>
       </c>
       <c r="P26" t="n">
         <v>3364.524801546836</v>
       </c>
       <c r="Q26" t="n">
-        <v>3651.253968356587</v>
+        <v>3651.253968356586</v>
       </c>
       <c r="R26" t="n">
         <v>3675.425158212814</v>
       </c>
       <c r="S26" t="n">
-        <v>3608.529061576477</v>
+        <v>3608.529061576476</v>
       </c>
       <c r="T26" t="n">
-        <v>3475.820285859358</v>
+        <v>3475.820285859357</v>
       </c>
       <c r="U26" t="n">
-        <v>3302.532449378775</v>
+        <v>3302.532449378773</v>
       </c>
       <c r="V26" t="n">
-        <v>3051.842020423368</v>
+        <v>3051.842020423367</v>
       </c>
       <c r="W26" t="n">
-        <v>2779.445823541419</v>
+        <v>2779.445823541417</v>
       </c>
       <c r="X26" t="n">
-        <v>2486.352523668503</v>
+        <v>2486.352523668502</v>
       </c>
       <c r="Y26" t="n">
-        <v>2176.585650080855</v>
+        <v>2176.585650080854</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I27" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J27" t="n">
-        <v>211.6190763424182</v>
+        <v>211.6190763424181</v>
       </c>
       <c r="K27" t="n">
-        <v>574.2928869471491</v>
+        <v>574.292886947149</v>
       </c>
       <c r="L27" t="n">
-        <v>756.2250364697036</v>
+        <v>1123.356978320128</v>
       </c>
       <c r="M27" t="n">
-        <v>1448.936155062176</v>
+        <v>1355.020083800101</v>
       </c>
       <c r="N27" t="n">
-        <v>1701.139338524867</v>
+        <v>1699.804617625631</v>
       </c>
       <c r="O27" t="n">
-        <v>2223.579604357568</v>
+        <v>1908.30146340403</v>
       </c>
       <c r="P27" t="n">
         <v>2371.583638258076</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.0923641956794</v>
+        <v>565.0923641956786</v>
       </c>
       <c r="C28" t="n">
-        <v>476.5286396559367</v>
+        <v>476.528639655936</v>
       </c>
       <c r="D28" t="n">
-        <v>406.7844586317651</v>
+        <v>406.7844586317646</v>
       </c>
       <c r="E28" t="n">
-        <v>339.2438234375362</v>
+        <v>339.2438234375358</v>
       </c>
       <c r="F28" t="n">
-        <v>272.72633432779</v>
+        <v>272.7263343277897</v>
       </c>
       <c r="G28" t="n">
-        <v>184.6680567204993</v>
+        <v>184.6680567204991</v>
       </c>
       <c r="H28" t="n">
-        <v>112.3516411989754</v>
+        <v>112.3516411989753</v>
       </c>
       <c r="I28" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9658000670179</v>
+        <v>146.965800067018</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8402737803098</v>
+        <v>346.84027378031</v>
       </c>
       <c r="L28" t="n">
-        <v>636.107887963619</v>
+        <v>636.1078879636193</v>
       </c>
       <c r="M28" t="n">
-        <v>947.2070656658275</v>
+        <v>947.2070656658279</v>
       </c>
       <c r="N28" t="n">
         <v>1258.216663663534</v>
       </c>
       <c r="O28" t="n">
-        <v>1535.481458529689</v>
+        <v>1535.481458529687</v>
       </c>
       <c r="P28" t="n">
-        <v>1760.577804032321</v>
+        <v>1760.577804032319</v>
       </c>
       <c r="Q28" t="n">
-        <v>1857.222438061913</v>
+        <v>1857.22243806191</v>
       </c>
       <c r="R28" t="n">
-        <v>1815.035436617787</v>
+        <v>1815.035436617785</v>
       </c>
       <c r="S28" t="n">
-        <v>1691.036709990748</v>
+        <v>1691.036709990746</v>
       </c>
       <c r="T28" t="n">
-        <v>1546.532437457695</v>
+        <v>1546.532437457693</v>
       </c>
       <c r="U28" t="n">
-        <v>1337.762325369493</v>
+        <v>1337.762325369492</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.45029555177</v>
+        <v>1163.450295551769</v>
       </c>
       <c r="W28" t="n">
-        <v>954.4055839029739</v>
+        <v>954.4055839029728</v>
       </c>
       <c r="X28" t="n">
-        <v>806.7884913931208</v>
+        <v>806.7884913931198</v>
       </c>
       <c r="Y28" t="n">
-        <v>666.3683706377549</v>
+        <v>666.368370637754</v>
       </c>
     </row>
     <row r="29">
@@ -6437,64 +6437,64 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1870.358268404898</v>
+        <v>1870.358268404897</v>
       </c>
       <c r="C29" t="n">
         <v>1581.76820985265</v>
       </c>
       <c r="D29" t="n">
-        <v>1303.874969634064</v>
+        <v>1303.874969634063</v>
       </c>
       <c r="E29" t="n">
-        <v>998.4591754239839</v>
+        <v>998.4591754239832</v>
       </c>
       <c r="F29" t="n">
-        <v>667.8457290225406</v>
+        <v>667.8457290225398</v>
       </c>
       <c r="G29" t="n">
-        <v>331.5230104734042</v>
+        <v>331.5230104734034</v>
       </c>
       <c r="H29" t="n">
         <v>97.69311781113443</v>
       </c>
       <c r="I29" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J29" t="n">
         <v>294.8071413586975</v>
       </c>
       <c r="K29" t="n">
-        <v>747.2212385058447</v>
+        <v>747.2212385058444</v>
       </c>
       <c r="L29" t="n">
-        <v>947.2729563451726</v>
+        <v>1360.757558750118</v>
       </c>
       <c r="M29" t="n">
-        <v>1646.556873882796</v>
+        <v>2060.041476287741</v>
       </c>
       <c r="N29" t="n">
-        <v>2267.881859811826</v>
+        <v>2756.008541144137</v>
       </c>
       <c r="O29" t="n">
-        <v>2879.876186022613</v>
+        <v>2991.010687904805</v>
       </c>
       <c r="P29" t="n">
-        <v>3364.524801546836</v>
+        <v>3388.695991403063</v>
       </c>
       <c r="Q29" t="n">
-        <v>3651.253968356587</v>
+        <v>3675.425158212813</v>
       </c>
       <c r="R29" t="n">
-        <v>3675.425158212814</v>
+        <v>3675.425158212813</v>
       </c>
       <c r="S29" t="n">
-        <v>3608.529061576477</v>
+        <v>3608.529061576476</v>
       </c>
       <c r="T29" t="n">
-        <v>3475.820285859358</v>
+        <v>3475.820285859357</v>
       </c>
       <c r="U29" t="n">
-        <v>3302.532449378775</v>
+        <v>3302.532449378774</v>
       </c>
       <c r="V29" t="n">
         <v>3051.842020423368</v>
@@ -6503,7 +6503,7 @@
         <v>2779.445823541418</v>
       </c>
       <c r="X29" t="n">
-        <v>2486.352523668503</v>
+        <v>2486.352523668502</v>
       </c>
       <c r="Y29" t="n">
         <v>2176.585650080855</v>
@@ -6537,13 +6537,13 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I30" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J30" t="n">
-        <v>211.6190763424182</v>
+        <v>211.6190763424181</v>
       </c>
       <c r="K30" t="n">
-        <v>574.2928869471491</v>
+        <v>574.2928869471489</v>
       </c>
       <c r="L30" t="n">
         <v>1123.356978320128</v>
@@ -6552,7 +6552,7 @@
         <v>1355.020083800101</v>
       </c>
       <c r="N30" t="n">
-        <v>1607.223267262792</v>
+        <v>1607.223267262791</v>
       </c>
       <c r="O30" t="n">
         <v>1908.30146340403</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.0923641956796</v>
+        <v>565.0923641956794</v>
       </c>
       <c r="C31" t="n">
-        <v>476.5286396559369</v>
+        <v>476.5286396559366</v>
       </c>
       <c r="D31" t="n">
-        <v>406.7844586317653</v>
+        <v>406.7844586317651</v>
       </c>
       <c r="E31" t="n">
-        <v>339.2438234375364</v>
+        <v>339.2438234375362</v>
       </c>
       <c r="F31" t="n">
-        <v>272.7263343277903</v>
+        <v>272.7263343277901</v>
       </c>
       <c r="G31" t="n">
-        <v>184.6680567204996</v>
+        <v>184.6680567204994</v>
       </c>
       <c r="H31" t="n">
         <v>112.3516411989754</v>
       </c>
       <c r="I31" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9658000670178</v>
+        <v>146.9658000670179</v>
       </c>
       <c r="K31" t="n">
-        <v>346.8402737803096</v>
+        <v>346.8402737803097</v>
       </c>
       <c r="L31" t="n">
         <v>636.1078879636189</v>
       </c>
       <c r="M31" t="n">
-        <v>947.2070656658275</v>
+        <v>947.2070656658274</v>
       </c>
       <c r="N31" t="n">
         <v>1258.216663663534</v>
@@ -6637,34 +6637,34 @@
         <v>1535.481458529689</v>
       </c>
       <c r="P31" t="n">
-        <v>1760.577804032322</v>
+        <v>1760.577804032321</v>
       </c>
       <c r="Q31" t="n">
-        <v>1857.222438061913</v>
+        <v>1857.222438061912</v>
       </c>
       <c r="R31" t="n">
-        <v>1815.035436617788</v>
+        <v>1815.035436617786</v>
       </c>
       <c r="S31" t="n">
-        <v>1691.036709990748</v>
+        <v>1691.036709990747</v>
       </c>
       <c r="T31" t="n">
-        <v>1546.532437457696</v>
+        <v>1546.532437457694</v>
       </c>
       <c r="U31" t="n">
-        <v>1337.762325369494</v>
+        <v>1337.762325369493</v>
       </c>
       <c r="V31" t="n">
-        <v>1163.450295551771</v>
+        <v>1163.45029555177</v>
       </c>
       <c r="W31" t="n">
-        <v>954.4055839029746</v>
+        <v>954.4055839029737</v>
       </c>
       <c r="X31" t="n">
-        <v>806.7884913931213</v>
+        <v>806.7884913931207</v>
       </c>
       <c r="Y31" t="n">
-        <v>666.3683706377551</v>
+        <v>666.3683706377549</v>
       </c>
     </row>
     <row r="32">
@@ -6677,58 +6677,58 @@
         <v>1870.358268404897</v>
       </c>
       <c r="C32" t="n">
-        <v>1581.768209852649</v>
+        <v>1581.76820985265</v>
       </c>
       <c r="D32" t="n">
         <v>1303.874969634063</v>
       </c>
       <c r="E32" t="n">
-        <v>998.4591754239826</v>
+        <v>998.4591754239832</v>
       </c>
       <c r="F32" t="n">
-        <v>667.8457290225392</v>
+        <v>667.8457290225399</v>
       </c>
       <c r="G32" t="n">
-        <v>331.5230104734023</v>
+        <v>331.5230104734035</v>
       </c>
       <c r="H32" t="n">
-        <v>97.69311781113447</v>
+        <v>97.69311781113441</v>
       </c>
       <c r="I32" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J32" t="n">
         <v>294.8071413586975</v>
       </c>
       <c r="K32" t="n">
-        <v>747.2212385058447</v>
+        <v>426.3172800603915</v>
       </c>
       <c r="L32" t="n">
-        <v>1215.382788363802</v>
+        <v>872.6308774178071</v>
       </c>
       <c r="M32" t="n">
-        <v>1914.666705901425</v>
+        <v>1571.91479495543</v>
       </c>
       <c r="N32" t="n">
-        <v>2610.633770757821</v>
+        <v>2267.881859811826</v>
       </c>
       <c r="O32" t="n">
-        <v>3222.628096968608</v>
+        <v>2879.876186022612</v>
       </c>
       <c r="P32" t="n">
-        <v>3388.695991403063</v>
+        <v>3364.524801546836</v>
       </c>
       <c r="Q32" t="n">
-        <v>3675.425158212814</v>
+        <v>3651.253968356586</v>
       </c>
       <c r="R32" t="n">
-        <v>3675.425158212814</v>
+        <v>3675.425158212813</v>
       </c>
       <c r="S32" t="n">
-        <v>3608.529061576477</v>
+        <v>3608.529061576476</v>
       </c>
       <c r="T32" t="n">
-        <v>3475.820285859357</v>
+        <v>3475.820285859356</v>
       </c>
       <c r="U32" t="n">
         <v>3302.532449378774</v>
@@ -6774,13 +6774,13 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I33" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J33" t="n">
-        <v>211.6190763424182</v>
+        <v>211.6190763424181</v>
       </c>
       <c r="K33" t="n">
-        <v>574.2928869471491</v>
+        <v>574.292886947149</v>
       </c>
       <c r="L33" t="n">
         <v>1123.356978320128</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.0923641956796</v>
+        <v>565.0923641956792</v>
       </c>
       <c r="C34" t="n">
-        <v>476.5286396559368</v>
+        <v>476.5286396559365</v>
       </c>
       <c r="D34" t="n">
-        <v>406.7844586317653</v>
+        <v>406.784458631765</v>
       </c>
       <c r="E34" t="n">
-        <v>339.2438234375363</v>
+        <v>339.2438234375361</v>
       </c>
       <c r="F34" t="n">
-        <v>272.7263343277901</v>
+        <v>272.7263343277899</v>
       </c>
       <c r="G34" t="n">
-        <v>184.6680567204994</v>
+        <v>184.6680567204992</v>
       </c>
       <c r="H34" t="n">
         <v>112.3516411989754</v>
       </c>
       <c r="I34" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425627</v>
       </c>
       <c r="J34" t="n">
         <v>146.9658000670179</v>
@@ -6862,10 +6862,10 @@
         <v>346.8402737803098</v>
       </c>
       <c r="L34" t="n">
-        <v>636.1078879636194</v>
+        <v>636.1078879636189</v>
       </c>
       <c r="M34" t="n">
-        <v>947.2070656658279</v>
+        <v>947.2070656658274</v>
       </c>
       <c r="N34" t="n">
         <v>1258.216663663534</v>
@@ -6874,13 +6874,13 @@
         <v>1535.481458529689</v>
       </c>
       <c r="P34" t="n">
-        <v>1760.577804032322</v>
+        <v>1760.577804032321</v>
       </c>
       <c r="Q34" t="n">
         <v>1857.222438061913</v>
       </c>
       <c r="R34" t="n">
-        <v>1815.035436617788</v>
+        <v>1815.035436617787</v>
       </c>
       <c r="S34" t="n">
         <v>1691.036709990748</v>
@@ -6889,19 +6889,19 @@
         <v>1546.532437457695</v>
       </c>
       <c r="U34" t="n">
-        <v>1337.762325369494</v>
+        <v>1337.762325369493</v>
       </c>
       <c r="V34" t="n">
-        <v>1163.450295551771</v>
+        <v>1163.45029555177</v>
       </c>
       <c r="W34" t="n">
-        <v>954.4055839029743</v>
+        <v>954.4055839029738</v>
       </c>
       <c r="X34" t="n">
-        <v>806.788491393121</v>
+        <v>806.7884913931207</v>
       </c>
       <c r="Y34" t="n">
-        <v>666.3683706377551</v>
+        <v>666.3683706377548</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1425.19033990825</v>
+        <v>1425.190339908249</v>
       </c>
       <c r="C35" t="n">
-        <v>1203.49637799234</v>
+        <v>1203.496377992339</v>
       </c>
       <c r="D35" t="n">
-        <v>992.4992344100905</v>
+        <v>992.4992344100893</v>
       </c>
       <c r="E35" t="n">
-        <v>753.9795368363476</v>
+        <v>753.9795368363464</v>
       </c>
       <c r="F35" t="n">
-        <v>490.2621870712414</v>
+        <v>490.2621870712401</v>
       </c>
       <c r="G35" t="n">
-        <v>220.8355651584416</v>
+        <v>220.8355651584417</v>
       </c>
       <c r="H35" t="n">
         <v>53.90176913250939</v>
@@ -6938,22 +6938,22 @@
         <v>275.2004073269507</v>
       </c>
       <c r="K35" t="n">
-        <v>475.3304300017253</v>
+        <v>727.6145044740977</v>
       </c>
       <c r="L35" t="n">
-        <v>1088.866750245999</v>
+        <v>927.6662223134256</v>
       </c>
       <c r="M35" t="n">
-        <v>1343.132269625718</v>
+        <v>1181.931741693144</v>
       </c>
       <c r="N35" t="n">
-        <v>1606.125879314249</v>
+        <v>1444.925351381676</v>
       </c>
       <c r="O35" t="n">
-        <v>2218.120205525036</v>
+        <v>1899.539484435269</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.188099959491</v>
+        <v>2384.188099959492</v>
       </c>
       <c r="Q35" t="n">
         <v>2670.917266769242</v>
@@ -6965,19 +6965,19 @@
         <v>2695.088456625469</v>
       </c>
       <c r="T35" t="n">
-        <v>2629.275777544687</v>
+        <v>2629.275777544686</v>
       </c>
       <c r="U35" t="n">
         <v>2522.884037700441</v>
       </c>
       <c r="V35" t="n">
-        <v>2339.089705381372</v>
+        <v>2339.089705381371</v>
       </c>
       <c r="W35" t="n">
         <v>2133.589605135759</v>
       </c>
       <c r="X35" t="n">
-        <v>1907.392401899181</v>
+        <v>1907.39240189918</v>
       </c>
       <c r="Y35" t="n">
         <v>1664.52162494787</v>
@@ -7017,16 +7017,16 @@
         <v>192.0123423106713</v>
       </c>
       <c r="K36" t="n">
-        <v>554.6861529154022</v>
+        <v>554.6861529154021</v>
       </c>
       <c r="L36" t="n">
         <v>1103.750244288381</v>
       </c>
       <c r="M36" t="n">
-        <v>1335.413349768354</v>
+        <v>1427.994700131193</v>
       </c>
       <c r="N36" t="n">
-        <v>1587.616533231045</v>
+        <v>1680.197883593884</v>
       </c>
       <c r="O36" t="n">
         <v>1888.694729372283</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>375.4133227000264</v>
+        <v>203.435672483313</v>
       </c>
       <c r="C37" t="n">
-        <v>353.7456947966208</v>
+        <v>181.7680445799074</v>
       </c>
       <c r="D37" t="n">
-        <v>350.8976104087864</v>
+        <v>178.9199601920729</v>
       </c>
       <c r="E37" t="n">
-        <v>350.2530718508947</v>
+        <v>178.275421634181</v>
       </c>
       <c r="F37" t="n">
-        <v>227.752824013151</v>
+        <v>178.275421634181</v>
       </c>
       <c r="G37" t="n">
-        <v>59.32208801769609</v>
+        <v>157.1132406632274</v>
       </c>
       <c r="H37" t="n">
-        <v>53.90176913250939</v>
+        <v>151.6929217780406</v>
       </c>
       <c r="I37" t="n">
         <v>53.90176913250939</v>
@@ -7099,46 +7099,46 @@
         <v>175.0031963795616</v>
       </c>
       <c r="L37" t="n">
-        <v>385.497764096631</v>
+        <v>385.4977640966309</v>
       </c>
       <c r="M37" t="n">
-        <v>617.8238953325998</v>
+        <v>617.8238953325997</v>
       </c>
       <c r="N37" t="n">
-        <v>850.0604468640664</v>
+        <v>850.0604468640663</v>
       </c>
       <c r="O37" t="n">
         <v>1048.552195263982</v>
       </c>
       <c r="P37" t="n">
-        <v>1194.875494300375</v>
+        <v>1194.875494300374</v>
       </c>
       <c r="Q37" t="n">
         <v>1212.747081863726</v>
       </c>
       <c r="R37" t="n">
-        <v>1090.187622031437</v>
+        <v>1212.747081863726</v>
       </c>
       <c r="S37" t="n">
-        <v>1033.084992040734</v>
+        <v>1155.644451873024</v>
       </c>
       <c r="T37" t="n">
-        <v>955.4768161440188</v>
+        <v>1078.036275976308</v>
       </c>
       <c r="U37" t="n">
-        <v>813.6028006921542</v>
+        <v>936.1622605244438</v>
       </c>
       <c r="V37" t="n">
-        <v>706.1868675107687</v>
+        <v>828.7463273430582</v>
       </c>
       <c r="W37" t="n">
-        <v>564.0382524983095</v>
+        <v>539.3291573060976</v>
       </c>
       <c r="X37" t="n">
-        <v>483.3172566247935</v>
+        <v>311.3396064080803</v>
       </c>
       <c r="Y37" t="n">
-        <v>409.7932325057647</v>
+        <v>237.8155822890514</v>
       </c>
     </row>
     <row r="38">
@@ -7151,58 +7151,58 @@
         <v>1425.190339908249</v>
       </c>
       <c r="C38" t="n">
-        <v>1203.496377992339</v>
+        <v>1203.496377992338</v>
       </c>
       <c r="D38" t="n">
-        <v>992.4992344100897</v>
+        <v>992.4992344100892</v>
       </c>
       <c r="E38" t="n">
-        <v>753.9795368363468</v>
+        <v>753.9795368363466</v>
       </c>
       <c r="F38" t="n">
         <v>490.2621870712405</v>
       </c>
       <c r="G38" t="n">
-        <v>220.8355651584416</v>
+        <v>220.8355651584417</v>
       </c>
       <c r="H38" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I38" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J38" t="n">
         <v>275.2004073269507</v>
       </c>
       <c r="K38" t="n">
-        <v>406.7105460286447</v>
+        <v>406.7105460286446</v>
       </c>
       <c r="L38" t="n">
-        <v>980.477869909537</v>
+        <v>606.7622638679725</v>
       </c>
       <c r="M38" t="n">
-        <v>1234.743389289256</v>
+        <v>861.027783247691</v>
       </c>
       <c r="N38" t="n">
-        <v>1497.736998977787</v>
+        <v>1287.545158224483</v>
       </c>
       <c r="O38" t="n">
-        <v>2109.731325188574</v>
+        <v>1899.53948443527</v>
       </c>
       <c r="P38" t="n">
-        <v>2594.379940712797</v>
+        <v>2384.188099959493</v>
       </c>
       <c r="Q38" t="n">
-        <v>2670.917266769242</v>
+        <v>2670.917266769243</v>
       </c>
       <c r="R38" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="S38" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="T38" t="n">
-        <v>2629.275777544687</v>
+        <v>2629.275777544688</v>
       </c>
       <c r="U38" t="n">
         <v>2522.884037700441</v>
@@ -7245,25 +7245,25 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H39" t="n">
-        <v>92.57422485256288</v>
+        <v>92.57422485256291</v>
       </c>
       <c r="I39" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J39" t="n">
         <v>192.0123423106713</v>
       </c>
       <c r="K39" t="n">
-        <v>554.6861529154022</v>
+        <v>554.6861529154021</v>
       </c>
       <c r="L39" t="n">
         <v>1103.750244288381</v>
       </c>
       <c r="M39" t="n">
-        <v>1335.413349768354</v>
+        <v>1427.994700131193</v>
       </c>
       <c r="N39" t="n">
-        <v>1587.616533231045</v>
+        <v>1680.197883593884</v>
       </c>
       <c r="O39" t="n">
         <v>1888.694729372283</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>252.9130748622827</v>
+        <v>497.9727825323155</v>
       </c>
       <c r="C40" t="n">
-        <v>83.97689193437576</v>
+        <v>378.1353944567878</v>
       </c>
       <c r="D40" t="n">
-        <v>81.1288075465414</v>
+        <v>228.018755044452</v>
       </c>
       <c r="E40" t="n">
-        <v>80.48426898864965</v>
+        <v>227.3742164865602</v>
       </c>
       <c r="F40" t="n">
-        <v>80.48426898864965</v>
+        <v>80.48426898864983</v>
       </c>
       <c r="G40" t="n">
-        <v>59.32208801769609</v>
+        <v>59.3220880176962</v>
       </c>
       <c r="H40" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I40" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J40" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="K40" t="n">
         <v>175.0031963795616</v>
       </c>
       <c r="L40" t="n">
-        <v>385.497764096631</v>
+        <v>385.4977640966309</v>
       </c>
       <c r="M40" t="n">
-        <v>617.8238953325998</v>
+        <v>617.8238953325997</v>
       </c>
       <c r="N40" t="n">
-        <v>850.0604468640664</v>
+        <v>850.0604468640663</v>
       </c>
       <c r="O40" t="n">
         <v>1048.552195263982</v>
       </c>
       <c r="P40" t="n">
-        <v>1194.875494300375</v>
+        <v>1194.875494300374</v>
       </c>
       <c r="Q40" t="n">
         <v>1212.747081863726</v>
@@ -7357,25 +7357,25 @@
         <v>1212.747081863726</v>
       </c>
       <c r="S40" t="n">
-        <v>1057.853299227492</v>
+        <v>1155.644451873024</v>
       </c>
       <c r="T40" t="n">
-        <v>980.2451233307766</v>
+        <v>1078.036275976308</v>
       </c>
       <c r="U40" t="n">
-        <v>838.371107878912</v>
+        <v>936.1622605244438</v>
       </c>
       <c r="V40" t="n">
-        <v>730.9551746975264</v>
+        <v>828.7463273430582</v>
       </c>
       <c r="W40" t="n">
-        <v>441.5380046605658</v>
+        <v>686.5977123305988</v>
       </c>
       <c r="X40" t="n">
-        <v>360.8170087870498</v>
+        <v>605.8767164570827</v>
       </c>
       <c r="Y40" t="n">
-        <v>287.292984668021</v>
+        <v>532.3526923380539</v>
       </c>
     </row>
     <row r="41">
@@ -7391,31 +7391,31 @@
         <v>1203.49637799234</v>
       </c>
       <c r="D41" t="n">
-        <v>992.4992344100912</v>
+        <v>992.499234410091</v>
       </c>
       <c r="E41" t="n">
-        <v>753.9795368363483</v>
+        <v>753.9795368363481</v>
       </c>
       <c r="F41" t="n">
-        <v>490.2621870712421</v>
+        <v>490.2621870712418</v>
       </c>
       <c r="G41" t="n">
-        <v>220.8355651584416</v>
+        <v>220.8355651584417</v>
       </c>
       <c r="H41" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I41" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J41" t="n">
         <v>275.2004073269507</v>
       </c>
       <c r="K41" t="n">
-        <v>727.6145044740978</v>
+        <v>727.6145044740977</v>
       </c>
       <c r="L41" t="n">
-        <v>927.6662223134257</v>
+        <v>927.6662223134256</v>
       </c>
       <c r="M41" t="n">
         <v>1181.931741693144</v>
@@ -7424,25 +7424,25 @@
         <v>1444.925351381676</v>
       </c>
       <c r="O41" t="n">
-        <v>1899.539484435268</v>
+        <v>1899.53948443527</v>
       </c>
       <c r="P41" t="n">
-        <v>2384.188099959491</v>
+        <v>2384.188099959493</v>
       </c>
       <c r="Q41" t="n">
-        <v>2670.917266769242</v>
+        <v>2670.917266769243</v>
       </c>
       <c r="R41" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="S41" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="T41" t="n">
-        <v>2629.275777544688</v>
+        <v>2629.275777544689</v>
       </c>
       <c r="U41" t="n">
-        <v>2522.884037700442</v>
+        <v>2522.884037700443</v>
       </c>
       <c r="V41" t="n">
         <v>2339.089705381373</v>
@@ -7482,25 +7482,25 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H42" t="n">
-        <v>92.57422485256288</v>
+        <v>92.57422485256291</v>
       </c>
       <c r="I42" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J42" t="n">
         <v>192.0123423106713</v>
       </c>
       <c r="K42" t="n">
-        <v>554.6861529154022</v>
+        <v>554.6861529154021</v>
       </c>
       <c r="L42" t="n">
         <v>1103.750244288381</v>
       </c>
       <c r="M42" t="n">
-        <v>1427.994700131193</v>
+        <v>1335.413349768354</v>
       </c>
       <c r="N42" t="n">
-        <v>1680.197883593883</v>
+        <v>1680.197883593884</v>
       </c>
       <c r="O42" t="n">
         <v>1888.694729372283</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.6445198377813</v>
+        <v>497.9727825323155</v>
       </c>
       <c r="C43" t="n">
-        <v>83.97689193437576</v>
+        <v>476.3051546289099</v>
       </c>
       <c r="D43" t="n">
-        <v>81.1288075465414</v>
+        <v>380.7109908805829</v>
       </c>
       <c r="E43" t="n">
-        <v>80.48426898864965</v>
+        <v>232.7978972981898</v>
       </c>
       <c r="F43" t="n">
-        <v>80.48426898864965</v>
+        <v>85.90794980027938</v>
       </c>
       <c r="G43" t="n">
-        <v>59.32208801769609</v>
+        <v>64.74576882932574</v>
       </c>
       <c r="H43" t="n">
-        <v>53.90176913250939</v>
+        <v>59.32544994413895</v>
       </c>
       <c r="I43" t="n">
-        <v>53.90176913250939</v>
+        <v>59.32544994413895</v>
       </c>
       <c r="J43" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="K43" t="n">
         <v>175.0031963795616</v>
       </c>
       <c r="L43" t="n">
-        <v>385.497764096631</v>
+        <v>385.4977640966309</v>
       </c>
       <c r="M43" t="n">
-        <v>617.8238953325998</v>
+        <v>617.8238953325997</v>
       </c>
       <c r="N43" t="n">
-        <v>850.0604468640664</v>
+        <v>850.0604468640663</v>
       </c>
       <c r="O43" t="n">
         <v>1048.552195263982</v>
       </c>
       <c r="P43" t="n">
-        <v>1194.875494300375</v>
+        <v>1194.875494300374</v>
       </c>
       <c r="Q43" t="n">
         <v>1212.747081863726</v>
@@ -7594,25 +7594,25 @@
         <v>1212.747081863726</v>
       </c>
       <c r="S43" t="n">
-        <v>1057.853299227492</v>
+        <v>1155.644451873024</v>
       </c>
       <c r="T43" t="n">
-        <v>980.2451233307764</v>
+        <v>1078.036275976308</v>
       </c>
       <c r="U43" t="n">
-        <v>838.3711078789119</v>
+        <v>936.1622605244438</v>
       </c>
       <c r="V43" t="n">
-        <v>583.686619673025</v>
+        <v>828.7463273430582</v>
       </c>
       <c r="W43" t="n">
-        <v>294.2694496360645</v>
+        <v>686.5977123305988</v>
       </c>
       <c r="X43" t="n">
-        <v>213.5484537625484</v>
+        <v>605.8767164570827</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.0244296435197</v>
+        <v>532.3526923380539</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1425.190339908249</v>
+        <v>1425.19033990825</v>
       </c>
       <c r="C44" t="n">
-        <v>1203.496377992339</v>
+        <v>1203.49637799234</v>
       </c>
       <c r="D44" t="n">
-        <v>992.4992344100897</v>
+        <v>992.4992344100906</v>
       </c>
       <c r="E44" t="n">
-        <v>753.9795368363471</v>
+        <v>753.979536836348</v>
       </c>
       <c r="F44" t="n">
-        <v>490.2621870712407</v>
+        <v>490.2621870712416</v>
       </c>
       <c r="G44" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H44" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I44" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J44" t="n">
         <v>275.2004073269507</v>
       </c>
       <c r="K44" t="n">
-        <v>727.6145044740978</v>
+        <v>727.6145044740977</v>
       </c>
       <c r="L44" t="n">
-        <v>1147.278208606349</v>
+        <v>927.6662223134256</v>
       </c>
       <c r="M44" t="n">
-        <v>1401.543727986068</v>
+        <v>1181.931741693144</v>
       </c>
       <c r="N44" t="n">
-        <v>1664.5373376746</v>
+        <v>1444.925351381676</v>
       </c>
       <c r="O44" t="n">
-        <v>1899.539484435268</v>
+        <v>1899.53948443527</v>
       </c>
       <c r="P44" t="n">
-        <v>2384.188099959491</v>
+        <v>2384.188099959493</v>
       </c>
       <c r="Q44" t="n">
-        <v>2670.917266769242</v>
+        <v>2670.917266769243</v>
       </c>
       <c r="R44" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="S44" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="T44" t="n">
-        <v>2629.275777544687</v>
+        <v>2629.275777544688</v>
       </c>
       <c r="U44" t="n">
-        <v>2522.884037700441</v>
+        <v>2522.884037700442</v>
       </c>
       <c r="V44" t="n">
-        <v>2339.089705381371</v>
+        <v>2339.089705381372</v>
       </c>
       <c r="W44" t="n">
         <v>2133.589605135759</v>
       </c>
       <c r="X44" t="n">
-        <v>1907.39240189918</v>
+        <v>1907.392401899181</v>
       </c>
       <c r="Y44" t="n">
-        <v>1664.52162494787</v>
+        <v>1664.521624947871</v>
       </c>
     </row>
     <row r="45">
@@ -7719,16 +7719,16 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H45" t="n">
-        <v>92.57422485256288</v>
+        <v>92.57422485256291</v>
       </c>
       <c r="I45" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J45" t="n">
         <v>192.0123423106713</v>
       </c>
       <c r="K45" t="n">
-        <v>554.6861529154022</v>
+        <v>554.6861529154021</v>
       </c>
       <c r="L45" t="n">
         <v>1103.750244288381</v>
@@ -7737,7 +7737,7 @@
         <v>1427.994700131193</v>
       </c>
       <c r="N45" t="n">
-        <v>1680.197883593883</v>
+        <v>1680.197883593884</v>
       </c>
       <c r="O45" t="n">
         <v>1888.694729372283</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>203.4356724833133</v>
+        <v>405.2267031718229</v>
       </c>
       <c r="C46" t="n">
-        <v>181.7680445799077</v>
+        <v>383.5590752684172</v>
       </c>
       <c r="D46" t="n">
-        <v>178.9199601920732</v>
+        <v>380.7109908805828</v>
       </c>
       <c r="E46" t="n">
-        <v>178.2754216341814</v>
+        <v>232.7978972981897</v>
       </c>
       <c r="F46" t="n">
-        <v>178.2754216341814</v>
+        <v>85.90794980027933</v>
       </c>
       <c r="G46" t="n">
-        <v>157.1132406632278</v>
+        <v>64.74576882932571</v>
       </c>
       <c r="H46" t="n">
-        <v>53.90176913250939</v>
+        <v>59.32544994413895</v>
       </c>
       <c r="I46" t="n">
-        <v>53.90176913250939</v>
+        <v>59.32544994413895</v>
       </c>
       <c r="J46" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="K46" t="n">
         <v>175.0031963795616</v>
       </c>
       <c r="L46" t="n">
-        <v>385.497764096631</v>
+        <v>385.4977640966309</v>
       </c>
       <c r="M46" t="n">
-        <v>617.8238953325998</v>
+        <v>617.8238953325997</v>
       </c>
       <c r="N46" t="n">
-        <v>850.0604468640664</v>
+        <v>850.0604468640663</v>
       </c>
       <c r="O46" t="n">
         <v>1048.552195263982</v>
       </c>
       <c r="P46" t="n">
-        <v>1194.875494300375</v>
+        <v>1194.875494300374</v>
       </c>
       <c r="Q46" t="n">
         <v>1212.747081863726</v>
@@ -7834,22 +7834,22 @@
         <v>1155.644451873024</v>
       </c>
       <c r="T46" t="n">
-        <v>1078.036275976309</v>
+        <v>1078.036275976308</v>
       </c>
       <c r="U46" t="n">
-        <v>936.162260524444</v>
+        <v>936.1622605244438</v>
       </c>
       <c r="V46" t="n">
-        <v>681.4777723185572</v>
+        <v>828.7463273430583</v>
       </c>
       <c r="W46" t="n">
-        <v>392.0606022815966</v>
+        <v>686.5977123305989</v>
       </c>
       <c r="X46" t="n">
-        <v>311.3396064080805</v>
+        <v>513.1306370965901</v>
       </c>
       <c r="Y46" t="n">
-        <v>237.8155822890517</v>
+        <v>439.6066129775613</v>
       </c>
     </row>
   </sheetData>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>26.05565968592742</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>26.05565968592811</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>41.30107658386416</v>
+        <v>41.30107658386419</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8769,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>88.69909752847289</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>271.259217022332</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>305.5300408829854</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>68.58197211239738</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>55.58437101770812</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>31.16902772859069</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>41.30107658386413</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>308.3053528294396</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>199.9198719253522</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9170,10 +9170,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>31.16902772859083</v>
       </c>
       <c r="N17" t="n">
-        <v>31.16902772859032</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.1239263136868</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>391.6172811748437</v>
+        <v>391.6172811748439</v>
       </c>
       <c r="N18" t="n">
-        <v>370.869727656947</v>
+        <v>370.8697276569471</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>181.1239263136873</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>31.16902772859024</v>
+        <v>31.16902772859069</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>360.6829294929619</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>199.9198719253522</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9641,13 +9641,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>44.86796315068014</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>44.86796315067909</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>3.54151961159161</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>3.541519611592491</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9881,16 +9881,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>266.0883787124467</v>
+        <v>393.8032040337961</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9957,19 +9957,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>93.51651551801993</v>
       </c>
       <c r="O27" t="n">
-        <v>317.114565711416</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10115,25 +10115,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>361.9508850914127</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>233.9569788523254</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>41.30107658386419</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>93.51651551801933</v>
+        <v>93.51651551802036</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,10 +10349,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>270.81801214003</v>
+        <v>248.7493732505937</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>41.30107658386413</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>93.51651551801939</v>
+        <v>93.5165155180199</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10586,10 +10586,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>69.31301411422285</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,10 +10598,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>221.8302891847722</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>93.51651551801967</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>93.51651551801911</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10826,13 +10826,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>377.4905111530954</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>165.1755204931925</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>93.51651551801967</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>93.51651551801911</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>221.8302891847714</v>
+        <v>221.8302891847731</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11145,10 +11145,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>93.51651551801916</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>93.5165155180197</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>221.8302891847714</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>221.8302891847731</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11382,7 +11382,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>93.51651551801916</v>
+        <v>93.51651551801967</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>303.165107859198</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>149.3197811331877</v>
+        <v>275.1143078164004</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>327.3073119374289</v>
       </c>
       <c r="G11" t="n">
         <v>332.9594913636451</v>
       </c>
       <c r="H11" t="n">
-        <v>231.4915937356467</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.94276850040939</v>
+        <v>23.12858243268193</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.22713566997373</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>171.5549581157774</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>248.1835246658524</v>
       </c>
       <c r="W11" t="n">
-        <v>269.6722349131305</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>290.1623668741865</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.669204851771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.664331842647698</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>327.3073119374289</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>317.1973645785362</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.3816879599483</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>171.5549581157773</v>
       </c>
       <c r="V14" t="n">
-        <v>248.1835246658524</v>
+        <v>248.1835246658523</v>
       </c>
       <c r="W14" t="n">
-        <v>269.6722349131305</v>
+        <v>269.6722349131304</v>
       </c>
       <c r="X14" t="n">
-        <v>290.1623668741865</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.42632660718914</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>13.4263266071888</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>13.42632660718776</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>13.42632660718914</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1245461.705837627</v>
+        <v>1245461.705837626</v>
       </c>
     </row>
     <row r="7">
@@ -26317,19 +26317,19 @@
         <v>122891.4508075557</v>
       </c>
       <c r="D2" t="n">
-        <v>122891.4508075558</v>
+        <v>122891.4508075557</v>
       </c>
       <c r="E2" t="n">
-        <v>101664.0184058269</v>
+        <v>101664.0184058268</v>
       </c>
       <c r="F2" t="n">
-        <v>109568.6676230575</v>
+        <v>109568.6676230576</v>
       </c>
       <c r="G2" t="n">
         <v>122995.9551399527</v>
       </c>
       <c r="H2" t="n">
-        <v>122995.9551399526</v>
+        <v>122995.9551399527</v>
       </c>
       <c r="I2" t="n">
         <v>123156.2654796425</v>
@@ -26375,31 +26375,31 @@
         <v>753993.2266122001</v>
       </c>
       <c r="F3" t="n">
-        <v>48878.85800921635</v>
+        <v>48878.85800921642</v>
       </c>
       <c r="G3" t="n">
-        <v>63654.98704342602</v>
+        <v>63654.98704342606</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>920.0015970188118</v>
+        <v>920.0015970187211</v>
       </c>
       <c r="J3" t="n">
-        <v>75818.20182542148</v>
+        <v>75818.20182542151</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63654.98704342599</v>
+        <v>63654.98704342604</v>
       </c>
       <c r="M3" t="n">
         <v>105300.8148108541</v>
       </c>
       <c r="N3" t="n">
-        <v>41782.42831583637</v>
+        <v>41782.42831583644</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,28 +26427,28 @@
         <v>138905.8300766321</v>
       </c>
       <c r="F4" t="n">
-        <v>160091.4048491452</v>
+        <v>160091.4048491453</v>
       </c>
       <c r="G4" t="n">
-        <v>210988.9811331991</v>
+        <v>210988.9811331992</v>
       </c>
       <c r="H4" t="n">
-        <v>210988.9811331991</v>
+        <v>210988.9811331992</v>
       </c>
       <c r="I4" t="n">
         <v>211418.63545371</v>
       </c>
       <c r="J4" t="n">
+        <v>201346.1402347317</v>
+      </c>
+      <c r="K4" t="n">
         <v>201346.1402347316</v>
       </c>
-      <c r="K4" t="n">
-        <v>201346.1402347315</v>
-      </c>
       <c r="L4" t="n">
-        <v>201346.1402347315</v>
+        <v>201346.1402347316</v>
       </c>
       <c r="M4" t="n">
-        <v>209486.9446193681</v>
+        <v>209486.944619368</v>
       </c>
       <c r="N4" t="n">
         <v>209486.9446193681</v>
@@ -26457,7 +26457,7 @@
         <v>209486.9446193681</v>
       </c>
       <c r="P4" t="n">
-        <v>209486.944619368</v>
+        <v>209486.9446193681</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26479,37 @@
         <v>49400.51786652592</v>
       </c>
       <c r="F5" t="n">
-        <v>59772.47212882795</v>
+        <v>59772.47212882796</v>
       </c>
       <c r="G5" t="n">
-        <v>66461.73601102017</v>
+        <v>66461.7360110202</v>
       </c>
       <c r="H5" t="n">
-        <v>66461.73601102017</v>
+        <v>66461.7360110202</v>
       </c>
       <c r="I5" t="n">
-        <v>66672.08456227693</v>
+        <v>66672.08456227691</v>
       </c>
       <c r="J5" t="n">
         <v>77601.21311784603</v>
       </c>
       <c r="K5" t="n">
-        <v>77601.21311784603</v>
+        <v>77601.21311784601</v>
       </c>
       <c r="L5" t="n">
-        <v>77601.21311784603</v>
+        <v>77601.21311784601</v>
       </c>
       <c r="M5" t="n">
         <v>68267.74432235741</v>
       </c>
       <c r="N5" t="n">
-        <v>68267.74432235741</v>
+        <v>68267.74432235742</v>
       </c>
       <c r="O5" t="n">
-        <v>68267.74432235741</v>
+        <v>68267.74432235742</v>
       </c>
       <c r="P5" t="n">
-        <v>68267.74432235741</v>
+        <v>68267.74432235742</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-352385.3991882647</v>
+        <v>-352389.8127661328</v>
       </c>
       <c r="C6" t="n">
-        <v>-352385.3991882647</v>
+        <v>-352389.8127661329</v>
       </c>
       <c r="D6" t="n">
-        <v>-352385.3991882647</v>
+        <v>-352389.8127661328</v>
       </c>
       <c r="E6" t="n">
-        <v>-840635.5561495313</v>
+        <v>-840993.7602674282</v>
       </c>
       <c r="F6" t="n">
-        <v>-159174.067364132</v>
+        <v>-159400.5273284085</v>
       </c>
       <c r="G6" t="n">
-        <v>-218109.7490476927</v>
+        <v>-218112.4208866876</v>
       </c>
       <c r="H6" t="n">
-        <v>-154454.7620042666</v>
+        <v>-154457.4338432615</v>
       </c>
       <c r="I6" t="n">
-        <v>-155854.4561333633</v>
+        <v>-155854.4561333632</v>
       </c>
       <c r="J6" t="n">
-        <v>-231609.2896983566</v>
+        <v>-231609.2896983567</v>
       </c>
       <c r="K6" t="n">
-        <v>-155791.0878729351</v>
+        <v>-155791.0878729352</v>
       </c>
       <c r="L6" t="n">
-        <v>-219446.074916361</v>
+        <v>-219446.0749163611</v>
       </c>
       <c r="M6" t="n">
-        <v>-259899.2382729371</v>
+        <v>-259899.238272937</v>
       </c>
       <c r="N6" t="n">
         <v>-196380.8517779194</v>
@@ -26561,7 +26561,7 @@
         <v>-154598.423462083</v>
       </c>
       <c r="P6" t="n">
-        <v>-154598.4234620829</v>
+        <v>-154598.423462083</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>79.56873380428254</v>
+      </c>
+      <c r="F2" t="n">
+        <v>79.5687338042826</v>
+      </c>
+      <c r="G2" t="n">
+        <v>159.1374676085652</v>
+      </c>
+      <c r="H2" t="n">
+        <v>159.1374676085652</v>
+      </c>
+      <c r="I2" t="n">
+        <v>159.1374676085652</v>
+      </c>
+      <c r="J2" t="n">
+        <v>79.56873380428264</v>
+      </c>
+      <c r="K2" t="n">
+        <v>79.56873380428257</v>
+      </c>
+      <c r="L2" t="n">
         <v>79.56873380428256</v>
       </c>
-      <c r="F2" t="n">
-        <v>79.56873380428256</v>
-      </c>
-      <c r="G2" t="n">
-        <v>159.1374676085651</v>
-      </c>
-      <c r="H2" t="n">
-        <v>159.1374676085651</v>
-      </c>
-      <c r="I2" t="n">
-        <v>159.1374676085651</v>
-      </c>
-      <c r="J2" t="n">
-        <v>79.56873380428254</v>
-      </c>
-      <c r="K2" t="n">
-        <v>79.56873380428254</v>
-      </c>
-      <c r="L2" t="n">
-        <v>79.5687338042825</v>
-      </c>
       <c r="M2" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="N2" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="O2" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="P2" t="n">
         <v>145.7958694742563</v>
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>690.159946367845</v>
+      </c>
+      <c r="F3" t="n">
         <v>690.1599463678451</v>
-      </c>
-      <c r="F3" t="n">
-        <v>690.1599463678452</v>
       </c>
       <c r="G3" t="n">
         <v>690.1599463678451</v>
@@ -26762,22 +26762,22 @@
         <v>690.1599463678451</v>
       </c>
       <c r="K3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.159946367845</v>
       </c>
       <c r="L3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="M3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="N3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="O3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678451</v>
       </c>
       <c r="P3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678451</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>455.0290650249122</v>
+        <v>455.0290650249123</v>
       </c>
       <c r="F4" t="n">
-        <v>625.620418023301</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="G4" t="n">
-        <v>625.620418023301</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="H4" t="n">
-        <v>625.620418023301</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="I4" t="n">
-        <v>629.0800981426553</v>
+        <v>629.0800981426551</v>
       </c>
       <c r="J4" t="n">
-        <v>918.8562895532035</v>
+        <v>918.8562895532034</v>
       </c>
       <c r="K4" t="n">
-        <v>918.8562895532035</v>
+        <v>918.8562895532033</v>
       </c>
       <c r="L4" t="n">
-        <v>918.8562895532035</v>
+        <v>918.8562895532033</v>
       </c>
       <c r="M4" t="n">
         <v>673.7721141563674</v>
       </c>
       <c r="N4" t="n">
-        <v>673.7721141563674</v>
+        <v>673.7721141563676</v>
       </c>
       <c r="O4" t="n">
-        <v>673.7721141563674</v>
+        <v>673.7721141563676</v>
       </c>
       <c r="P4" t="n">
-        <v>673.7721141563674</v>
+        <v>673.7721141563676</v>
       </c>
     </row>
   </sheetData>
@@ -26914,31 +26914,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>79.56873380428254</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.002665031701325e-14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>79.56873380428257</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>79.56873380428256</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>79.56873380428253</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>79.56873380428249</v>
-      </c>
       <c r="M2" t="n">
-        <v>66.22713566997383</v>
+        <v>66.22713566997369</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.1599463678451</v>
+        <v>690.159946367845</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>455.0290650249122</v>
+        <v>455.0290650249123</v>
       </c>
       <c r="F4" t="n">
-        <v>170.5913529983888</v>
+        <v>170.5913529983889</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.459680119354289</v>
+        <v>3.459680119353948</v>
       </c>
       <c r="J4" t="n">
-        <v>289.7761914105482</v>
+        <v>289.7761914105483</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>209.9448896280761</v>
+        <v>209.9448896280763</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983888</v>
+        <v>170.5913529983891</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>455.0290650249122</v>
+        <v>455.0290650249123</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983888</v>
+        <v>170.5913529983889</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="C11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="D11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="E11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="F11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="G11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="H11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="I11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="T11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="U11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="V11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="W11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="X11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>79.56873380428256</v>
+        <v>9.237407409830809</v>
       </c>
       <c r="C12" t="n">
-        <v>79.56873380428256</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>79.56873380428256</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>79.56873380428256</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="H12" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="I12" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285296</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="T12" t="n">
-        <v>9.237407409830666</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="W12" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Y12" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="C13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="D13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="E13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="F13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="G13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="H13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="I13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="J13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="K13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="L13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="M13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="N13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="O13" t="n">
-        <v>79.56873380428183</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="P13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="R13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="S13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="T13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="U13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="V13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="W13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="X13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428254</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="C14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="D14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="E14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="F14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="G14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="H14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="I14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="T14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="U14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="V14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="W14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="X14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
     </row>
     <row r="15">
@@ -28418,10 +28418,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>22.04208629079712</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>22.04208629079642</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28457,7 +28457,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>79.56873380428256</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="C16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="D16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="E16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="F16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="G16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="H16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="I16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="J16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="K16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="L16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="M16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="N16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="O16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.56873380428092</v>
       </c>
       <c r="P16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="R16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="S16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="T16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="U16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="V16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="W16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="X16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.56873380428256</v>
+        <v>79.5687338042826</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="C17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="D17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="E17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="F17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="G17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="H17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="I17" t="n">
         <v>103.5115023046919</v>
@@ -28615,22 +28615,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="U17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="V17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="W17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="X17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="Y17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
     </row>
     <row r="18">
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.89834799213801</v>
       </c>
       <c r="I18" t="n">
-        <v>38.28573116285295</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>3.712472102941131</v>
       </c>
       <c r="S18" t="n">
-        <v>63.32508893222631</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="H19" t="n">
-        <v>151.1619851705912</v>
+        <v>49.60401720805436</v>
       </c>
       <c r="I19" t="n">
         <v>118.0234404586545</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.3338652339668</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="T19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="U19" t="n">
-        <v>98.5710356524973</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="W19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="X19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="Y19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="C20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="D20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="E20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="F20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="G20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="H20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="I20" t="n">
         <v>103.5115023046919</v>
@@ -28852,22 +28852,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="U20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="V20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="W20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="X20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="Y20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
     </row>
     <row r="21">
@@ -28889,10 +28889,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>101.6108200950795</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>101.610820095079</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28956,22 +28956,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>87.03612643850657</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="H22" t="n">
         <v>151.1619851705912</v>
@@ -29007,22 +29007,22 @@
         <v>121.3338652339668</v>
       </c>
       <c r="S22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="T22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="U22" t="n">
-        <v>159.1374676085651</v>
+        <v>111.2745406144925</v>
       </c>
       <c r="V22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="W22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="X22" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="C23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="D23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="E23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="F23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="G23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="H23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="I23" t="n">
         <v>103.5115023046919</v>
@@ -29089,22 +29089,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="U23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="V23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="W23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="X23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="Y23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
     </row>
     <row r="24">
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>88.18449348789024</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29165,7 +29165,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>88.1844934878891</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="C25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29208,7 +29208,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="H25" t="n">
         <v>151.1619851705912</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.47093823989495</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -29250,19 +29250,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>159.1374676085651</v>
+        <v>73.47093823989422</v>
       </c>
       <c r="V25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="W25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>159.1374676085652</v>
       </c>
       <c r="Y25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.1374676085652</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="C26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="D26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="E26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="F26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="G26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="H26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="I26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="T26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="U26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="V26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="W26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="X26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="C28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="D28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="E28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="F28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="G28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="H28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="I28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="J28" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="K28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="L28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="M28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="N28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="O28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380427956</v>
       </c>
       <c r="P28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="R28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="S28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="T28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="U28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="V28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="W28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="X28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428264</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="C29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="D29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="E29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="F29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="G29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="H29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="I29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="T29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="U29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="V29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="W29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="X29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="C31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="D31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="E31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="F31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="G31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="H31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="I31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="J31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="K31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="L31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="M31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="N31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="O31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="P31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="R31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="S31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="T31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="U31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="V31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="W31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="X31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428257</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="C32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="D32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="E32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="F32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="G32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="H32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="I32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="T32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="U32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="V32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="W32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="X32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="C34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="D34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="E34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="F34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="G34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="H34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="I34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="J34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="K34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="L34" t="n">
-        <v>79.56873380428303</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="M34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="N34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428272</v>
       </c>
       <c r="O34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="P34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="R34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="S34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="T34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="U34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="V34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="W34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="X34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="C35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="D35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="E35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="F35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="G35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="H35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="I35" t="n">
         <v>103.5115023046919</v>
@@ -30037,22 +30037,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="U35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="V35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="W35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="X35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
     </row>
     <row r="36">
@@ -30141,31 +30141,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="C37" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="D37" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="E37" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="F37" t="n">
-        <v>24.14580266356499</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="H37" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="I37" t="n">
-        <v>118.0234404586545</v>
+        <v>21.21019933957858</v>
       </c>
       <c r="J37" t="n">
-        <v>5.369444003513237</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S37" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="T37" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="U37" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="V37" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="W37" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="C38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="D38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="E38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="F38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="G38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="H38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="I38" t="n">
         <v>103.5115023046919</v>
@@ -30274,22 +30274,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="U38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="V38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="W38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="X38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
     </row>
     <row r="39">
@@ -30378,31 +30378,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>48.6078069038554</v>
       </c>
       <c r="D40" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="H40" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="I40" t="n">
         <v>118.0234404586545</v>
       </c>
       <c r="J40" t="n">
-        <v>5.369444003513237</v>
+        <v>5.369444003513252</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>121.3338652339668</v>
       </c>
       <c r="S40" t="n">
-        <v>48.9826283551796</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="T40" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="U40" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="V40" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="X40" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="C41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="D41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="E41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="F41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="G41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="H41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="I41" t="n">
         <v>103.5115023046919</v>
@@ -30511,22 +30511,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="U41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="V41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="W41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="X41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="C43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="D43" t="n">
-        <v>145.7958694742563</v>
+        <v>53.97725090736864</v>
       </c>
       <c r="E43" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="H43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="I43" t="n">
         <v>118.0234404586545</v>
       </c>
       <c r="J43" t="n">
-        <v>5.369444003513237</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>121.3338652339668</v>
       </c>
       <c r="S43" t="n">
-        <v>48.9826283551796</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="T43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="U43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="X43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
     </row>
     <row r="44">
@@ -30861,22 +30861,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="E46" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="H46" t="n">
-        <v>48.98262835517994</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="I46" t="n">
         <v>118.0234404586545</v>
       </c>
       <c r="J46" t="n">
-        <v>5.369444003513237</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30912,13 +30912,13 @@
         <v>145.7958694742563</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="X46" t="n">
-        <v>145.7958694742563</v>
+        <v>53.97725090736844</v>
       </c>
       <c r="Y46" t="n">
         <v>145.7958694742563</v>
@@ -31765,7 +31765,7 @@
         <v>352.9283749860855</v>
       </c>
       <c r="L11" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319345</v>
       </c>
       <c r="M11" t="n">
         <v>487.1800911865844</v>
@@ -31774,25 +31774,25 @@
         <v>495.0631743930875</v>
       </c>
       <c r="O11" t="n">
-        <v>467.4741172405438</v>
+        <v>467.4741172405437</v>
       </c>
       <c r="P11" t="n">
         <v>398.9783436688606</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344949</v>
       </c>
       <c r="R11" t="n">
-        <v>174.284461230268</v>
+        <v>174.2844612302679</v>
       </c>
       <c r="S11" t="n">
-        <v>63.22420011198904</v>
+        <v>63.22420011198903</v>
       </c>
       <c r="T11" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765931</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,7 +31832,7 @@
         <v>1.484494978979893</v>
       </c>
       <c r="H12" t="n">
-        <v>14.33709624435845</v>
+        <v>14.33709624435844</v>
       </c>
       <c r="I12" t="n">
         <v>51.11090168856212</v>
@@ -31841,16 +31841,16 @@
         <v>140.2522207991486</v>
       </c>
       <c r="K12" t="n">
-        <v>239.7133843908015</v>
+        <v>239.7133843908014</v>
       </c>
       <c r="L12" t="n">
-        <v>322.3242277824545</v>
+        <v>322.3242277824544</v>
       </c>
       <c r="M12" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704755</v>
       </c>
       <c r="N12" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496872</v>
       </c>
       <c r="O12" t="n">
         <v>353.1991189680801</v>
@@ -31862,16 +31862,16 @@
         <v>189.4944818782053</v>
       </c>
       <c r="R12" t="n">
-        <v>92.16890755455867</v>
+        <v>92.16890755455866</v>
       </c>
       <c r="S12" t="n">
-        <v>27.57384314026248</v>
+        <v>27.57384314026247</v>
       </c>
       <c r="T12" t="n">
-        <v>5.98355651615141</v>
+        <v>5.983556516151409</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09766414335394039</v>
+        <v>0.09766414335394037</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,10 +31914,10 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I13" t="n">
-        <v>37.42703446860381</v>
+        <v>37.4270344686038</v>
       </c>
       <c r="J13" t="n">
-        <v>87.98973611315952</v>
+        <v>87.98973611315951</v>
       </c>
       <c r="K13" t="n">
         <v>144.5941658128042</v>
@@ -31929,10 +31929,10 @@
         <v>195.0889828724713</v>
       </c>
       <c r="N13" t="n">
-        <v>190.4502029050811</v>
+        <v>190.450202905081</v>
       </c>
       <c r="O13" t="n">
-        <v>175.9115876414305</v>
+        <v>175.9115876414304</v>
       </c>
       <c r="P13" t="n">
         <v>150.5227528930788</v>
@@ -31941,16 +31941,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R13" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320262</v>
       </c>
       <c r="S13" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T13" t="n">
-        <v>5.317625816276838</v>
+        <v>5.317625816276837</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06788458488864058</v>
+        <v>0.06788458488864056</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207415</v>
       </c>
       <c r="H14" t="n">
-        <v>28.41447457583796</v>
+        <v>28.41447457583795</v>
       </c>
       <c r="I14" t="n">
         <v>106.964387265714</v>
@@ -31999,22 +31999,22 @@
         <v>235.4832673287956</v>
       </c>
       <c r="K14" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860855</v>
       </c>
       <c r="L14" t="n">
         <v>437.8388572319346</v>
       </c>
       <c r="M14" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865844</v>
       </c>
       <c r="N14" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930875</v>
       </c>
       <c r="O14" t="n">
-        <v>467.4741172405439</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P14" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688606</v>
       </c>
       <c r="Q14" t="n">
         <v>299.616120234495</v>
@@ -32023,7 +32023,7 @@
         <v>174.284461230268</v>
       </c>
       <c r="S14" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T14" t="n">
         <v>12.14542779990047</v>
@@ -32066,22 +32066,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.484494978979894</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H15" t="n">
         <v>14.33709624435845</v>
       </c>
       <c r="I15" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856212</v>
       </c>
       <c r="J15" t="n">
-        <v>140.2522207991487</v>
+        <v>140.2522207991486</v>
       </c>
       <c r="K15" t="n">
         <v>239.7133843908015</v>
       </c>
       <c r="L15" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M15" t="n">
         <v>376.1371707704756</v>
@@ -32090,25 +32090,25 @@
         <v>386.0924024496873</v>
       </c>
       <c r="O15" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680801</v>
       </c>
       <c r="P15" t="n">
-        <v>283.4734315562571</v>
+        <v>283.473431556257</v>
       </c>
       <c r="Q15" t="n">
-        <v>189.4944818782054</v>
+        <v>189.4944818782053</v>
       </c>
       <c r="R15" t="n">
-        <v>92.16890755455869</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S15" t="n">
         <v>27.57384314026248</v>
       </c>
       <c r="T15" t="n">
-        <v>5.983556516151411</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,13 +32154,13 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J16" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K16" t="n">
         <v>144.5941658128042</v>
       </c>
       <c r="L16" t="n">
-        <v>185.0307502114712</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M16" t="n">
         <v>195.0889828724713</v>
@@ -32184,10 +32184,10 @@
         <v>21.68912487192063</v>
       </c>
       <c r="T16" t="n">
-        <v>5.317625816276839</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207415</v>
       </c>
       <c r="H29" t="n">
-        <v>28.41447457583796</v>
+        <v>28.41447457583795</v>
       </c>
       <c r="I29" t="n">
         <v>106.964387265714</v>
@@ -33184,37 +33184,37 @@
         <v>235.4832673287956</v>
       </c>
       <c r="K29" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860855</v>
       </c>
       <c r="L29" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319345</v>
       </c>
       <c r="M29" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865844</v>
       </c>
       <c r="N29" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930875</v>
       </c>
       <c r="O29" t="n">
-        <v>467.4741172405439</v>
+        <v>467.4741172405437</v>
       </c>
       <c r="P29" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688606</v>
       </c>
       <c r="Q29" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344949</v>
       </c>
       <c r="R29" t="n">
-        <v>174.284461230268</v>
+        <v>174.2844612302679</v>
       </c>
       <c r="S29" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198903</v>
       </c>
       <c r="T29" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765931</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.484494978979894</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H30" t="n">
-        <v>14.33709624435845</v>
+        <v>14.33709624435844</v>
       </c>
       <c r="I30" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856212</v>
       </c>
       <c r="J30" t="n">
-        <v>140.2522207991487</v>
+        <v>140.2522207991486</v>
       </c>
       <c r="K30" t="n">
-        <v>239.7133843908015</v>
+        <v>239.7133843908014</v>
       </c>
       <c r="L30" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824544</v>
       </c>
       <c r="M30" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704755</v>
       </c>
       <c r="N30" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496872</v>
       </c>
       <c r="O30" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680801</v>
       </c>
       <c r="P30" t="n">
-        <v>283.4734315562571</v>
+        <v>283.473431556257</v>
       </c>
       <c r="Q30" t="n">
-        <v>189.4944818782054</v>
+        <v>189.4944818782053</v>
       </c>
       <c r="R30" t="n">
-        <v>92.16890755455869</v>
+        <v>92.16890755455866</v>
       </c>
       <c r="S30" t="n">
-        <v>27.57384314026248</v>
+        <v>27.57384314026247</v>
       </c>
       <c r="T30" t="n">
-        <v>5.983556516151411</v>
+        <v>5.983556516151409</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394037</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,25 +33336,25 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I31" t="n">
-        <v>37.42703446860381</v>
+        <v>37.4270344686038</v>
       </c>
       <c r="J31" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315951</v>
       </c>
       <c r="K31" t="n">
         <v>144.5941658128042</v>
       </c>
       <c r="L31" t="n">
-        <v>185.0307502114712</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M31" t="n">
         <v>195.0889828724713</v>
       </c>
       <c r="N31" t="n">
-        <v>190.4502029050811</v>
+        <v>190.450202905081</v>
       </c>
       <c r="O31" t="n">
-        <v>175.9115876414305</v>
+        <v>175.9115876414304</v>
       </c>
       <c r="P31" t="n">
         <v>150.5227528930788</v>
@@ -33363,16 +33363,16 @@
         <v>104.2141519015446</v>
       </c>
       <c r="R31" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320262</v>
       </c>
       <c r="S31" t="n">
         <v>21.68912487192063</v>
       </c>
       <c r="T31" t="n">
-        <v>5.317625816276839</v>
+        <v>5.317625816276837</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.06788458488864056</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207415</v>
       </c>
       <c r="H32" t="n">
-        <v>28.41447457583796</v>
+        <v>28.41447457583795</v>
       </c>
       <c r="I32" t="n">
         <v>106.964387265714</v>
@@ -33421,22 +33421,22 @@
         <v>235.4832673287956</v>
       </c>
       <c r="K32" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860855</v>
       </c>
       <c r="L32" t="n">
         <v>437.8388572319346</v>
       </c>
       <c r="M32" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865844</v>
       </c>
       <c r="N32" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930875</v>
       </c>
       <c r="O32" t="n">
-        <v>467.4741172405439</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P32" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688606</v>
       </c>
       <c r="Q32" t="n">
         <v>299.616120234495</v>
@@ -33445,7 +33445,7 @@
         <v>174.284461230268</v>
       </c>
       <c r="S32" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T32" t="n">
         <v>12.14542779990047</v>
@@ -33488,22 +33488,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.484494978979894</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H33" t="n">
         <v>14.33709624435845</v>
       </c>
       <c r="I33" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856212</v>
       </c>
       <c r="J33" t="n">
-        <v>140.2522207991487</v>
+        <v>140.2522207991486</v>
       </c>
       <c r="K33" t="n">
         <v>239.7133843908015</v>
       </c>
       <c r="L33" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M33" t="n">
         <v>376.1371707704756</v>
@@ -33512,25 +33512,25 @@
         <v>386.0924024496873</v>
       </c>
       <c r="O33" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680801</v>
       </c>
       <c r="P33" t="n">
-        <v>283.4734315562571</v>
+        <v>283.473431556257</v>
       </c>
       <c r="Q33" t="n">
-        <v>189.4944818782054</v>
+        <v>189.4944818782053</v>
       </c>
       <c r="R33" t="n">
-        <v>92.16890755455869</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S33" t="n">
         <v>27.57384314026248</v>
       </c>
       <c r="T33" t="n">
-        <v>5.983556516151411</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33576,13 +33576,13 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J34" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K34" t="n">
         <v>144.5941658128042</v>
       </c>
       <c r="L34" t="n">
-        <v>185.0307502114712</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M34" t="n">
         <v>195.0889828724713</v>
@@ -33606,10 +33606,10 @@
         <v>21.68912487192063</v>
       </c>
       <c r="T34" t="n">
-        <v>5.317625816276839</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207415</v>
       </c>
       <c r="H35" t="n">
-        <v>28.41447457583796</v>
+        <v>28.41447457583795</v>
       </c>
       <c r="I35" t="n">
         <v>106.964387265714</v>
@@ -33658,22 +33658,22 @@
         <v>235.4832673287956</v>
       </c>
       <c r="K35" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860855</v>
       </c>
       <c r="L35" t="n">
         <v>437.8388572319346</v>
       </c>
       <c r="M35" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865844</v>
       </c>
       <c r="N35" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930875</v>
       </c>
       <c r="O35" t="n">
-        <v>467.4741172405439</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P35" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688606</v>
       </c>
       <c r="Q35" t="n">
         <v>299.616120234495</v>
@@ -33682,7 +33682,7 @@
         <v>174.284461230268</v>
       </c>
       <c r="S35" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T35" t="n">
         <v>12.14542779990047</v>
@@ -33725,22 +33725,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.484494978979894</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H36" t="n">
         <v>14.33709624435845</v>
       </c>
       <c r="I36" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856212</v>
       </c>
       <c r="J36" t="n">
-        <v>140.2522207991487</v>
+        <v>140.2522207991486</v>
       </c>
       <c r="K36" t="n">
         <v>239.7133843908015</v>
       </c>
       <c r="L36" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M36" t="n">
         <v>376.1371707704756</v>
@@ -33749,25 +33749,25 @@
         <v>386.0924024496873</v>
       </c>
       <c r="O36" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680801</v>
       </c>
       <c r="P36" t="n">
-        <v>283.4734315562571</v>
+        <v>283.473431556257</v>
       </c>
       <c r="Q36" t="n">
-        <v>189.4944818782054</v>
+        <v>189.4944818782053</v>
       </c>
       <c r="R36" t="n">
-        <v>92.16890755455869</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S36" t="n">
         <v>27.57384314026248</v>
       </c>
       <c r="T36" t="n">
-        <v>5.983556516151411</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33813,13 +33813,13 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J37" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K37" t="n">
         <v>144.5941658128042</v>
       </c>
       <c r="L37" t="n">
-        <v>185.0307502114712</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M37" t="n">
         <v>195.0889828724713</v>
@@ -33843,10 +33843,10 @@
         <v>21.68912487192063</v>
       </c>
       <c r="T37" t="n">
-        <v>5.317625816276839</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207415</v>
       </c>
       <c r="H38" t="n">
-        <v>28.41447457583796</v>
+        <v>28.41447457583795</v>
       </c>
       <c r="I38" t="n">
         <v>106.964387265714</v>
@@ -33895,22 +33895,22 @@
         <v>235.4832673287956</v>
       </c>
       <c r="K38" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860855</v>
       </c>
       <c r="L38" t="n">
         <v>437.8388572319346</v>
       </c>
       <c r="M38" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865844</v>
       </c>
       <c r="N38" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930875</v>
       </c>
       <c r="O38" t="n">
-        <v>467.4741172405439</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P38" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688606</v>
       </c>
       <c r="Q38" t="n">
         <v>299.616120234495</v>
@@ -33919,7 +33919,7 @@
         <v>174.284461230268</v>
       </c>
       <c r="S38" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T38" t="n">
         <v>12.14542779990047</v>
@@ -33962,22 +33962,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.484494978979894</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H39" t="n">
         <v>14.33709624435845</v>
       </c>
       <c r="I39" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856212</v>
       </c>
       <c r="J39" t="n">
-        <v>140.2522207991487</v>
+        <v>140.2522207991486</v>
       </c>
       <c r="K39" t="n">
         <v>239.7133843908015</v>
       </c>
       <c r="L39" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M39" t="n">
         <v>376.1371707704756</v>
@@ -33986,25 +33986,25 @@
         <v>386.0924024496873</v>
       </c>
       <c r="O39" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680801</v>
       </c>
       <c r="P39" t="n">
-        <v>283.4734315562571</v>
+        <v>283.473431556257</v>
       </c>
       <c r="Q39" t="n">
-        <v>189.4944818782054</v>
+        <v>189.4944818782053</v>
       </c>
       <c r="R39" t="n">
-        <v>92.16890755455869</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S39" t="n">
         <v>27.57384314026248</v>
       </c>
       <c r="T39" t="n">
-        <v>5.983556516151411</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34050,13 +34050,13 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J40" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K40" t="n">
         <v>144.5941658128042</v>
       </c>
       <c r="L40" t="n">
-        <v>185.0307502114712</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M40" t="n">
         <v>195.0889828724713</v>
@@ -34080,10 +34080,10 @@
         <v>21.68912487192063</v>
       </c>
       <c r="T40" t="n">
-        <v>5.317625816276839</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207415</v>
       </c>
       <c r="H41" t="n">
-        <v>28.41447457583796</v>
+        <v>28.41447457583795</v>
       </c>
       <c r="I41" t="n">
         <v>106.964387265714</v>
@@ -34132,22 +34132,22 @@
         <v>235.4832673287956</v>
       </c>
       <c r="K41" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860855</v>
       </c>
       <c r="L41" t="n">
         <v>437.8388572319346</v>
       </c>
       <c r="M41" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865844</v>
       </c>
       <c r="N41" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930875</v>
       </c>
       <c r="O41" t="n">
-        <v>467.4741172405439</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P41" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688606</v>
       </c>
       <c r="Q41" t="n">
         <v>299.616120234495</v>
@@ -34156,7 +34156,7 @@
         <v>174.284461230268</v>
       </c>
       <c r="S41" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T41" t="n">
         <v>12.14542779990047</v>
@@ -34199,22 +34199,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.484494978979894</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H42" t="n">
         <v>14.33709624435845</v>
       </c>
       <c r="I42" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856212</v>
       </c>
       <c r="J42" t="n">
-        <v>140.2522207991487</v>
+        <v>140.2522207991486</v>
       </c>
       <c r="K42" t="n">
         <v>239.7133843908015</v>
       </c>
       <c r="L42" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M42" t="n">
         <v>376.1371707704756</v>
@@ -34223,25 +34223,25 @@
         <v>386.0924024496873</v>
       </c>
       <c r="O42" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680801</v>
       </c>
       <c r="P42" t="n">
-        <v>283.4734315562571</v>
+        <v>283.473431556257</v>
       </c>
       <c r="Q42" t="n">
-        <v>189.4944818782054</v>
+        <v>189.4944818782053</v>
       </c>
       <c r="R42" t="n">
-        <v>92.16890755455869</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S42" t="n">
         <v>27.57384314026248</v>
       </c>
       <c r="T42" t="n">
-        <v>5.983556516151411</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34287,13 +34287,13 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J43" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K43" t="n">
         <v>144.5941658128042</v>
       </c>
       <c r="L43" t="n">
-        <v>185.0307502114712</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M43" t="n">
         <v>195.0889828724713</v>
@@ -34317,10 +34317,10 @@
         <v>21.68912487192063</v>
       </c>
       <c r="T43" t="n">
-        <v>5.317625816276839</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207415</v>
       </c>
       <c r="H44" t="n">
-        <v>28.41447457583796</v>
+        <v>28.41447457583795</v>
       </c>
       <c r="I44" t="n">
         <v>106.964387265714</v>
@@ -34369,22 +34369,22 @@
         <v>235.4832673287956</v>
       </c>
       <c r="K44" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860855</v>
       </c>
       <c r="L44" t="n">
         <v>437.8388572319346</v>
       </c>
       <c r="M44" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865844</v>
       </c>
       <c r="N44" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930875</v>
       </c>
       <c r="O44" t="n">
-        <v>467.4741172405439</v>
+        <v>467.4741172405438</v>
       </c>
       <c r="P44" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688606</v>
       </c>
       <c r="Q44" t="n">
         <v>299.616120234495</v>
@@ -34393,7 +34393,7 @@
         <v>174.284461230268</v>
       </c>
       <c r="S44" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198904</v>
       </c>
       <c r="T44" t="n">
         <v>12.14542779990047</v>
@@ -34436,22 +34436,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.484494978979894</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H45" t="n">
         <v>14.33709624435845</v>
       </c>
       <c r="I45" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856212</v>
       </c>
       <c r="J45" t="n">
-        <v>140.2522207991487</v>
+        <v>140.2522207991486</v>
       </c>
       <c r="K45" t="n">
         <v>239.7133843908015</v>
       </c>
       <c r="L45" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824545</v>
       </c>
       <c r="M45" t="n">
         <v>376.1371707704756</v>
@@ -34460,25 +34460,25 @@
         <v>386.0924024496873</v>
       </c>
       <c r="O45" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680801</v>
       </c>
       <c r="P45" t="n">
-        <v>283.4734315562571</v>
+        <v>283.473431556257</v>
       </c>
       <c r="Q45" t="n">
-        <v>189.4944818782054</v>
+        <v>189.4944818782053</v>
       </c>
       <c r="R45" t="n">
-        <v>92.16890755455869</v>
+        <v>92.16890755455867</v>
       </c>
       <c r="S45" t="n">
         <v>27.57384314026248</v>
       </c>
       <c r="T45" t="n">
-        <v>5.983556516151411</v>
+        <v>5.98355651615141</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394039</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34524,13 +34524,13 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J46" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315952</v>
       </c>
       <c r="K46" t="n">
         <v>144.5941658128042</v>
       </c>
       <c r="L46" t="n">
-        <v>185.0307502114712</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M46" t="n">
         <v>195.0889828724713</v>
@@ -34554,10 +34554,10 @@
         <v>21.68912487192063</v>
       </c>
       <c r="T46" t="n">
-        <v>5.317625816276839</v>
+        <v>5.317625816276838</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.06788458488864058</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>223.5339779741831</v>
+        <v>223.533977974183</v>
       </c>
       <c r="K11" t="n">
-        <v>132.838523941105</v>
+        <v>132.8385239411049</v>
       </c>
       <c r="L11" t="n">
-        <v>228.1281019478748</v>
+        <v>202.0724422619473</v>
       </c>
       <c r="M11" t="n">
         <v>256.8338579593117</v>
@@ -35425,10 +35425,10 @@
         <v>237.375905818857</v>
       </c>
       <c r="P11" t="n">
-        <v>167.7453479135911</v>
+        <v>193.8010075995192</v>
       </c>
       <c r="Q11" t="n">
-        <v>289.6254210199502</v>
+        <v>289.6254210199501</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>13.41459413248194</v>
+        <v>13.41459413248191</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5710429449154</v>
+        <v>366.337182429021</v>
       </c>
       <c r="L12" t="n">
-        <v>183.7698480025803</v>
+        <v>455.0290650249123</v>
       </c>
       <c r="M12" t="n">
         <v>234.0031368484572</v>
       </c>
       <c r="N12" t="n">
-        <v>254.750690366354</v>
+        <v>254.7506903663539</v>
       </c>
       <c r="O12" t="n">
-        <v>210.6028745236357</v>
+        <v>210.6028745236356</v>
       </c>
       <c r="P12" t="n">
-        <v>455.0290650249122</v>
+        <v>149.4990241419267</v>
       </c>
       <c r="Q12" t="n">
-        <v>259.5899955280329</v>
+        <v>118.0946799045812</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.19928980076931</v>
+        <v>74.19928980076928</v>
       </c>
       <c r="K13" t="n">
         <v>201.8934077912039</v>
@@ -35574,19 +35574,19 @@
         <v>292.1895092760698</v>
       </c>
       <c r="M13" t="n">
-        <v>314.2415936385945</v>
+        <v>314.2415936385944</v>
       </c>
       <c r="N13" t="n">
         <v>314.1511090885922</v>
       </c>
       <c r="O13" t="n">
-        <v>280.065449359752</v>
+        <v>280.0654493597526</v>
       </c>
       <c r="P13" t="n">
         <v>227.3700459622548</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.62084245413278</v>
+        <v>97.62084245413276</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>223.5339779741831</v>
       </c>
       <c r="K14" t="n">
-        <v>456.9839365122698</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L14" t="n">
-        <v>257.6568132796555</v>
+        <v>202.0724422619473</v>
       </c>
       <c r="M14" t="n">
-        <v>256.8338579593118</v>
+        <v>256.8338579593117</v>
       </c>
       <c r="N14" t="n">
-        <v>265.6501107964967</v>
+        <v>265.6501107964966</v>
       </c>
       <c r="O14" t="n">
-        <v>237.3759058188571</v>
+        <v>268.5449335474477</v>
       </c>
       <c r="P14" t="n">
-        <v>489.5440560850738</v>
+        <v>489.5440560850737</v>
       </c>
       <c r="Q14" t="n">
         <v>289.6254210199502</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>554.6101933060395</v>
       </c>
       <c r="M15" t="n">
-        <v>234.0031368484573</v>
+        <v>234.0031368484572</v>
       </c>
       <c r="N15" t="n">
         <v>254.750690366354</v>
       </c>
       <c r="O15" t="n">
-        <v>210.6028745236358</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P15" t="n">
-        <v>457.8043769713664</v>
+        <v>467.9617927818639</v>
       </c>
       <c r="Q15" t="n">
-        <v>259.589995528033</v>
+        <v>249.432579717536</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.19928980076932</v>
+        <v>74.19928980076935</v>
       </c>
       <c r="K16" t="n">
         <v>201.893407791204</v>
@@ -35817,13 +35817,13 @@
         <v>314.1511090885922</v>
       </c>
       <c r="O16" t="n">
-        <v>280.0654493597527</v>
+        <v>280.0654493597511</v>
       </c>
       <c r="P16" t="n">
         <v>227.3700459622549</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.6208424541328</v>
+        <v>97.62084245413283</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,10 +35890,10 @@
         <v>202.0724422619473</v>
       </c>
       <c r="M17" t="n">
-        <v>256.8338579593117</v>
+        <v>288.0028856879025</v>
       </c>
       <c r="N17" t="n">
-        <v>296.8191385250869</v>
+        <v>265.6501107964966</v>
       </c>
       <c r="O17" t="n">
         <v>237.375905818857</v>
@@ -35963,22 +35963,22 @@
         <v>139.5056294728908</v>
       </c>
       <c r="K18" t="n">
-        <v>282.9958717301293</v>
+        <v>101.8719454164425</v>
       </c>
       <c r="L18" t="n">
         <v>183.7698480025803</v>
       </c>
       <c r="M18" t="n">
-        <v>625.620418023301</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="N18" t="n">
-        <v>625.620418023301</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="O18" t="n">
         <v>210.6028745236357</v>
       </c>
       <c r="P18" t="n">
-        <v>149.4990241419268</v>
+        <v>330.6229504556141</v>
       </c>
       <c r="Q18" t="n">
         <v>259.5899955280329</v>
@@ -36133,7 +36133,7 @@
         <v>265.6501107964966</v>
       </c>
       <c r="O20" t="n">
-        <v>268.5449335474473</v>
+        <v>268.5449335474477</v>
       </c>
       <c r="P20" t="n">
         <v>489.5440560850737</v>
@@ -36203,7 +36203,7 @@
         <v>366.3371824290211</v>
       </c>
       <c r="L21" t="n">
-        <v>544.4527774955423</v>
+        <v>554.6101933060395</v>
       </c>
       <c r="M21" t="n">
         <v>234.0031368484572</v>
@@ -36218,7 +36218,7 @@
         <v>467.9617927818639</v>
       </c>
       <c r="Q21" t="n">
-        <v>259.5899955280329</v>
+        <v>249.432579717536</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,13 +36361,13 @@
         <v>456.9839365122697</v>
       </c>
       <c r="L23" t="n">
-        <v>246.9404054126275</v>
+        <v>202.0724422619473</v>
       </c>
       <c r="M23" t="n">
         <v>256.8338579593117</v>
       </c>
       <c r="N23" t="n">
-        <v>265.6501107964966</v>
+        <v>310.5180739471757</v>
       </c>
       <c r="O23" t="n">
         <v>237.375905818857</v>
@@ -36443,13 +36443,13 @@
         <v>554.6101933060395</v>
       </c>
       <c r="M24" t="n">
-        <v>234.0031368484572</v>
+        <v>237.5446564600489</v>
       </c>
       <c r="N24" t="n">
         <v>254.750690366354</v>
       </c>
       <c r="O24" t="n">
-        <v>214.1443941352282</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P24" t="n">
         <v>467.9617927818639</v>
@@ -36601,16 +36601,16 @@
         <v>619.7336568123978</v>
       </c>
       <c r="M26" t="n">
-        <v>706.3473914521442</v>
+        <v>256.8338579593117</v>
       </c>
       <c r="N26" t="n">
-        <v>531.7384895089433</v>
+        <v>659.4533148302927</v>
       </c>
       <c r="O26" t="n">
         <v>618.1760870816024</v>
       </c>
       <c r="P26" t="n">
-        <v>167.7453479135911</v>
+        <v>489.5440560850737</v>
       </c>
       <c r="Q26" t="n">
         <v>289.6254210199502</v>
@@ -36677,19 +36677,19 @@
         <v>366.3371824290211</v>
       </c>
       <c r="L27" t="n">
-        <v>183.7698480025803</v>
+        <v>554.6101933060395</v>
       </c>
       <c r="M27" t="n">
-        <v>699.7082005984571</v>
+        <v>234.0031368484572</v>
       </c>
       <c r="N27" t="n">
-        <v>254.750690366354</v>
+        <v>348.2672058843739</v>
       </c>
       <c r="O27" t="n">
-        <v>527.7174402350518</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P27" t="n">
-        <v>149.4990241419268</v>
+        <v>467.9617927818639</v>
       </c>
       <c r="Q27" t="n">
         <v>259.5899955280329</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.19928980076935</v>
+        <v>74.19928980076939</v>
       </c>
       <c r="K28" t="n">
-        <v>201.8934077912039</v>
+        <v>201.893407791204</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1895092760698</v>
+        <v>292.1895092760699</v>
       </c>
       <c r="M28" t="n">
-        <v>314.2415936385945</v>
+        <v>314.2415936385946</v>
       </c>
       <c r="N28" t="n">
-        <v>314.1511090885922</v>
+        <v>314.1511090885923</v>
       </c>
       <c r="O28" t="n">
-        <v>280.0654493597527</v>
+        <v>280.0654493597497</v>
       </c>
       <c r="P28" t="n">
-        <v>227.3700459622548</v>
+        <v>227.3700459622549</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.62084245413277</v>
+        <v>97.62084245413287</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>223.5339779741831</v>
+        <v>223.533977974183</v>
       </c>
       <c r="K29" t="n">
-        <v>456.9839365122698</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L29" t="n">
-        <v>202.0724422619474</v>
+        <v>619.7336568123977</v>
       </c>
       <c r="M29" t="n">
-        <v>706.3473914521443</v>
+        <v>706.3473914521442</v>
       </c>
       <c r="N29" t="n">
-        <v>627.6009958879094</v>
+        <v>702.9970352084807</v>
       </c>
       <c r="O29" t="n">
-        <v>618.1760870816025</v>
+        <v>237.375905818857</v>
       </c>
       <c r="P29" t="n">
-        <v>489.5440560850738</v>
+        <v>401.7023267659165</v>
       </c>
       <c r="Q29" t="n">
-        <v>289.6254210199502</v>
+        <v>289.6254210199501</v>
       </c>
       <c r="R29" t="n">
-        <v>24.41534328911831</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>139.5056294728908</v>
+        <v>139.5056294728907</v>
       </c>
       <c r="K30" t="n">
-        <v>366.3371824290211</v>
+        <v>366.337182429021</v>
       </c>
       <c r="L30" t="n">
         <v>554.6101933060395</v>
       </c>
       <c r="M30" t="n">
-        <v>234.0031368484573</v>
+        <v>234.0031368484572</v>
       </c>
       <c r="N30" t="n">
-        <v>254.750690366354</v>
+        <v>254.7506903663539</v>
       </c>
       <c r="O30" t="n">
-        <v>304.1193900416551</v>
+        <v>304.119390041656</v>
       </c>
       <c r="P30" t="n">
-        <v>467.961792781864</v>
+        <v>467.9617927818639</v>
       </c>
       <c r="Q30" t="n">
-        <v>259.589995528033</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>201.8934077912039</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1895092760699</v>
+        <v>292.1895092760698</v>
       </c>
       <c r="M31" t="n">
         <v>314.2415936385945</v>
@@ -37005,7 +37005,7 @@
         <v>280.0654493597527</v>
       </c>
       <c r="P31" t="n">
-        <v>227.3700459622549</v>
+        <v>227.3700459622548</v>
       </c>
       <c r="Q31" t="n">
         <v>97.62084245413278</v>
@@ -37069,28 +37069,28 @@
         <v>223.5339779741831</v>
       </c>
       <c r="K32" t="n">
-        <v>456.9839365122698</v>
+        <v>132.838523941105</v>
       </c>
       <c r="L32" t="n">
-        <v>472.8904544019774</v>
+        <v>450.8218155125411</v>
       </c>
       <c r="M32" t="n">
-        <v>706.3473914521443</v>
+        <v>706.3473914521442</v>
       </c>
       <c r="N32" t="n">
         <v>702.9970352084808</v>
       </c>
       <c r="O32" t="n">
-        <v>618.1760870816025</v>
+        <v>618.1760870816024</v>
       </c>
       <c r="P32" t="n">
-        <v>167.7453479135912</v>
+        <v>489.5440560850737</v>
       </c>
       <c r="Q32" t="n">
         <v>289.6254210199502</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>554.6101933060395</v>
       </c>
       <c r="M33" t="n">
-        <v>327.5196523664767</v>
+        <v>327.5196523664771</v>
       </c>
       <c r="N33" t="n">
         <v>254.750690366354</v>
       </c>
       <c r="O33" t="n">
-        <v>210.6028745236358</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P33" t="n">
-        <v>467.961792781864</v>
+        <v>467.9617927818639</v>
       </c>
       <c r="Q33" t="n">
-        <v>259.589995528033</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.19928980076926</v>
+        <v>74.19928980076931</v>
       </c>
       <c r="K34" t="n">
         <v>201.8934077912039</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1895092760703</v>
+        <v>292.1895092760698</v>
       </c>
       <c r="M34" t="n">
         <v>314.2415936385945</v>
       </c>
       <c r="N34" t="n">
-        <v>314.1511090885922</v>
+        <v>314.1511090885924</v>
       </c>
       <c r="O34" t="n">
         <v>280.0654493597527</v>
@@ -37245,7 +37245,7 @@
         <v>227.3700459622548</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.62084245413274</v>
+        <v>97.62084245413278</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>223.5339779741831</v>
       </c>
       <c r="K35" t="n">
-        <v>202.1515380553279</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L35" t="n">
-        <v>619.7336568123978</v>
+        <v>202.0724422619473</v>
       </c>
       <c r="M35" t="n">
-        <v>256.8338579593118</v>
+        <v>256.8338579593117</v>
       </c>
       <c r="N35" t="n">
-        <v>265.6501107964967</v>
+        <v>265.6501107964966</v>
       </c>
       <c r="O35" t="n">
-        <v>618.1760870816025</v>
+        <v>459.2061950036292</v>
       </c>
       <c r="P35" t="n">
-        <v>167.7453479135912</v>
+        <v>489.5440560850737</v>
       </c>
       <c r="Q35" t="n">
         <v>289.6254210199502</v>
       </c>
       <c r="R35" t="n">
-        <v>24.41534328911831</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>554.6101933060395</v>
       </c>
       <c r="M36" t="n">
-        <v>234.0031368484573</v>
+        <v>327.5196523664769</v>
       </c>
       <c r="N36" t="n">
         <v>254.750690366354</v>
       </c>
       <c r="O36" t="n">
-        <v>304.1193900416549</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P36" t="n">
-        <v>467.961792781864</v>
+        <v>467.9617927818639</v>
       </c>
       <c r="Q36" t="n">
-        <v>259.589995528033</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>234.6728598343119</v>
       </c>
       <c r="N37" t="n">
-        <v>234.5823752843097</v>
+        <v>234.5823752843096</v>
       </c>
       <c r="O37" t="n">
         <v>200.4967155554702</v>
@@ -37482,7 +37482,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.05210864985024</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>223.5339779741831</v>
       </c>
       <c r="K38" t="n">
-        <v>132.8385239411051</v>
+        <v>132.838523941105</v>
       </c>
       <c r="L38" t="n">
-        <v>579.5629534150428</v>
+        <v>202.0724422619473</v>
       </c>
       <c r="M38" t="n">
-        <v>256.8338579593118</v>
+        <v>256.8338579593117</v>
       </c>
       <c r="N38" t="n">
-        <v>265.6501107964967</v>
+        <v>430.8256312896891</v>
       </c>
       <c r="O38" t="n">
-        <v>618.1760870816025</v>
+        <v>618.1760870816024</v>
       </c>
       <c r="P38" t="n">
-        <v>489.5440560850738</v>
+        <v>489.5440560850737</v>
       </c>
       <c r="Q38" t="n">
-        <v>77.31043036004556</v>
+        <v>289.6254210199502</v>
       </c>
       <c r="R38" t="n">
-        <v>24.41534328911831</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>554.6101933060395</v>
       </c>
       <c r="M39" t="n">
-        <v>234.0031368484573</v>
+        <v>327.5196523664769</v>
       </c>
       <c r="N39" t="n">
         <v>254.750690366354</v>
       </c>
       <c r="O39" t="n">
-        <v>304.1193900416549</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P39" t="n">
-        <v>467.961792781864</v>
+        <v>467.9617927818639</v>
       </c>
       <c r="Q39" t="n">
-        <v>259.589995528033</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>234.6728598343119</v>
       </c>
       <c r="N40" t="n">
-        <v>234.5823752843097</v>
+        <v>234.5823752843096</v>
       </c>
       <c r="O40" t="n">
         <v>200.4967155554702</v>
@@ -37719,7 +37719,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.05210864985024</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>223.5339779741831</v>
       </c>
       <c r="K41" t="n">
-        <v>456.9839365122698</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L41" t="n">
-        <v>202.0724422619474</v>
+        <v>202.0724422619473</v>
       </c>
       <c r="M41" t="n">
-        <v>256.8338579593118</v>
+        <v>256.8338579593117</v>
       </c>
       <c r="N41" t="n">
-        <v>265.6501107964967</v>
+        <v>265.6501107964966</v>
       </c>
       <c r="O41" t="n">
-        <v>459.2061950036285</v>
+        <v>459.2061950036301</v>
       </c>
       <c r="P41" t="n">
-        <v>489.5440560850738</v>
+        <v>489.5440560850737</v>
       </c>
       <c r="Q41" t="n">
         <v>289.6254210199502</v>
       </c>
       <c r="R41" t="n">
-        <v>24.41534328911831</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>554.6101933060395</v>
       </c>
       <c r="M42" t="n">
-        <v>327.5196523664765</v>
+        <v>234.0031368484572</v>
       </c>
       <c r="N42" t="n">
-        <v>254.750690366354</v>
+        <v>348.2672058843737</v>
       </c>
       <c r="O42" t="n">
-        <v>210.6028745236358</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P42" t="n">
-        <v>467.961792781864</v>
+        <v>467.9617927818639</v>
       </c>
       <c r="Q42" t="n">
-        <v>259.589995528033</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>234.6728598343119</v>
       </c>
       <c r="N43" t="n">
-        <v>234.5823752843097</v>
+        <v>234.5823752843096</v>
       </c>
       <c r="O43" t="n">
         <v>200.4967155554702</v>
@@ -37956,7 +37956,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.05210864985024</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>223.5339779741831</v>
       </c>
       <c r="K44" t="n">
-        <v>456.9839365122698</v>
+        <v>456.9839365122697</v>
       </c>
       <c r="L44" t="n">
-        <v>423.9027314467188</v>
+        <v>202.0724422619473</v>
       </c>
       <c r="M44" t="n">
-        <v>256.8338579593118</v>
+        <v>256.8338579593117</v>
       </c>
       <c r="N44" t="n">
-        <v>265.6501107964967</v>
+        <v>265.6501107964966</v>
       </c>
       <c r="O44" t="n">
-        <v>237.3759058188571</v>
+        <v>459.2061950036301</v>
       </c>
       <c r="P44" t="n">
-        <v>489.5440560850738</v>
+        <v>489.5440560850737</v>
       </c>
       <c r="Q44" t="n">
         <v>289.6254210199502</v>
       </c>
       <c r="R44" t="n">
-        <v>24.41534328911831</v>
+        <v>24.41534328911828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>554.6101933060395</v>
       </c>
       <c r="M45" t="n">
-        <v>327.5196523664765</v>
+        <v>327.5196523664769</v>
       </c>
       <c r="N45" t="n">
         <v>254.750690366354</v>
       </c>
       <c r="O45" t="n">
-        <v>210.6028745236358</v>
+        <v>210.6028745236357</v>
       </c>
       <c r="P45" t="n">
-        <v>467.961792781864</v>
+        <v>467.9617927818639</v>
       </c>
       <c r="Q45" t="n">
-        <v>259.589995528033</v>
+        <v>259.5899955280329</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>234.6728598343119</v>
       </c>
       <c r="N46" t="n">
-        <v>234.5823752843097</v>
+        <v>234.5823752843096</v>
       </c>
       <c r="O46" t="n">
         <v>200.4967155554702</v>
@@ -38193,7 +38193,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.05210864985024</v>
+        <v>18.05210864985023</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
